--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3115512.24545736</v>
+        <v>-3116324.482262898</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2909833.60054733</v>
+        <v>2909833.600547332</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,50 +1218,50 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="S9" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="U10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="V10" t="n">
-        <v>10.00967878293136</v>
       </c>
       <c r="W10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.5465712312742</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>289.557888188956</v>
@@ -1379,16 +1379,16 @@
         <v>302.2813298033896</v>
       </c>
       <c r="F11" t="n">
-        <v>321.4531458913667</v>
+        <v>71.24362585017167</v>
       </c>
       <c r="G11" t="n">
-        <v>322.8491597882405</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>235.4343762339799</v>
       </c>
       <c r="I11" t="n">
-        <v>47.20352412604839</v>
+        <v>61.82000905557413</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>84.55747718688177</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.2069945273324</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>163.7369697115373</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>245.0529484714534</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.16328210597135</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>79.36327695137183</v>
       </c>
       <c r="D13" t="n">
-        <v>62.98464134895022</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.93239120472967</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.39931553291598</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>78.4330246052472</v>
       </c>
       <c r="H13" t="n">
-        <v>67.07973325206109</v>
+        <v>14.41968826418438</v>
       </c>
       <c r="I13" t="n">
         <v>46.95714478044763</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.63407987987213</v>
+        <v>48.63407987987212</v>
       </c>
       <c r="S13" t="n">
         <v>118.8162700318315</v>
       </c>
       <c r="T13" t="n">
-        <v>118.0760805213716</v>
+        <v>141.2609306242059</v>
       </c>
       <c r="U13" t="n">
         <v>195.7486591160983</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>169.5714185055969</v>
       </c>
       <c r="W13" t="n">
         <v>194.7383045762102</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>140.3834065720133</v>
       </c>
       <c r="Y13" t="n">
         <v>131.258274328081</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.5465712312742</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>289.557888188956</v>
@@ -1616,13 +1616,13 @@
         <v>302.2813298033896</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.4531458913667</v>
       </c>
       <c r="G14" t="n">
-        <v>322.8491597882406</v>
+        <v>322.8491597882405</v>
       </c>
       <c r="H14" t="n">
-        <v>13.74614488112563</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.55747718688177</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>245.0529484714534</v>
       </c>
       <c r="W14" t="n">
         <v>270.3530479494103</v>
       </c>
       <c r="X14" t="n">
-        <v>289.6533061821569</v>
+        <v>122.9974051186178</v>
       </c>
       <c r="Y14" t="n">
         <v>301.0499039783557</v>
@@ -1768,22 +1768,22 @@
         <v>79.36327695137183</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.98464134895022</v>
       </c>
       <c r="E16" t="n">
-        <v>61.93239120472967</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>62.39931553291598</v>
       </c>
       <c r="G16" t="n">
-        <v>22.68548546590484</v>
+        <v>78.4330246052472</v>
       </c>
       <c r="H16" t="n">
-        <v>67.07973325206108</v>
+        <v>67.07973325206109</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.95714478044763</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.63407987987213</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.8162700318315</v>
       </c>
       <c r="T16" t="n">
-        <v>141.2609306242059</v>
+        <v>39.62506515408835</v>
       </c>
       <c r="U16" t="n">
         <v>195.7486591160983</v>
       </c>
       <c r="V16" t="n">
-        <v>169.5714185055969</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>194.7383045762102</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1795505202354</v>
+        <v>224.1795505202352</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1908674779172</v>
+        <v>212.1908674779169</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1721715224452</v>
+        <v>203.1721715224449</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9143090923507</v>
+        <v>224.9143090923504</v>
       </c>
       <c r="F17" t="n">
-        <v>244.0861251803279</v>
+        <v>244.0861251803276</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4821390772017</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0673555229411</v>
+        <v>158.0673555229408</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.190456475842934</v>
+        <v>7.190456475842678</v>
       </c>
       <c r="T17" t="n">
-        <v>53.83997381629356</v>
+        <v>53.83997381629331</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36994900049851</v>
+        <v>86.36994900049825</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6859277604146</v>
+        <v>167.6859277604143</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9860272383715</v>
+        <v>192.9860272383719</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2862854711181</v>
+        <v>212.2862854711178</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.6828832673168</v>
+        <v>223.6828832673166</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79626139493251</v>
+        <v>15.79626139493226</v>
       </c>
       <c r="C19" t="n">
-        <v>96.95826109182113</v>
+        <v>1.996256240332741</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.066003894208368</v>
+        <v>1.066003894208112</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.4184152144945</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.97203610473861</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.44924932079266</v>
+        <v>196.8017054915163</v>
       </c>
       <c r="T19" t="n">
-        <v>63.8939099131671</v>
+        <v>63.89390991316684</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3816384050594</v>
+        <v>118.3816384050592</v>
       </c>
       <c r="V19" t="n">
-        <v>92.2043977945581</v>
+        <v>92.20439779455785</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3712838651714</v>
+        <v>117.3712838651711</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01638586097448</v>
+        <v>63.01638586097422</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.89125361704217</v>
+        <v>53.89125361704191</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1795505202354</v>
+        <v>224.1795505202352</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1908674779172</v>
+        <v>212.1908674779169</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1721715224452</v>
+        <v>203.1721715224449</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9143090923507</v>
+        <v>224.9143090923504</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0861251803279</v>
+        <v>244.0861251803276</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4821390772008</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0673555229411</v>
+        <v>158.0673555229408</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.190456475842934</v>
+        <v>7.190456475842678</v>
       </c>
       <c r="T20" t="n">
-        <v>53.83997381629356</v>
+        <v>53.83997381629331</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36994900049851</v>
+        <v>86.36994900049825</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6859277604146</v>
+        <v>167.6859277604143</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9860272383715</v>
+        <v>192.9860272383712</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2862854711181</v>
+        <v>212.2862854711178</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6828832673168</v>
+        <v>223.6828832673166</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79626139493251</v>
+        <v>15.79626139493226</v>
       </c>
       <c r="C22" t="n">
-        <v>1.996256240332997</v>
+        <v>1.996256240332741</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.066003894208368</v>
+        <v>1.066003894208112</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>155.3524561707237</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.97203610473861</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>137.1906127714368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.44924932079266</v>
+        <v>41.4492493207924</v>
       </c>
       <c r="T22" t="n">
-        <v>64.08371720771287</v>
+        <v>63.89390991316684</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3816384050594</v>
+        <v>118.3816384050592</v>
       </c>
       <c r="V22" t="n">
-        <v>92.2043977945581</v>
+        <v>92.20439779455785</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3712838651714</v>
+        <v>117.3712838651711</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01638586097448</v>
+        <v>63.01638586097422</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.89125361704217</v>
+        <v>53.89125361704191</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1795505202354</v>
+        <v>224.1795505202352</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1908674779172</v>
+        <v>212.1908674779169</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1721715224452</v>
+        <v>203.1721715224449</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9143090923507</v>
+        <v>224.9143090923504</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0861251803279</v>
+        <v>244.0861251803276</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4821390772017</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0673555229411</v>
+        <v>158.0673555229408</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="S23" t="n">
-        <v>7.190456475842934</v>
+        <v>7.190456475842678</v>
       </c>
       <c r="T23" t="n">
-        <v>53.83997381629356</v>
+        <v>53.83997381629331</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36994900049849</v>
+        <v>86.36994900049824</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6859277604146</v>
+        <v>167.6859277604143</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9860272383715</v>
+        <v>192.9860272383712</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2862854711181</v>
+        <v>212.2862854711178</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6828832673168</v>
+        <v>223.6828832673166</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79626139493251</v>
+        <v>15.79626139493226</v>
       </c>
       <c r="C25" t="n">
-        <v>1.996256240332997</v>
+        <v>1.996256240332741</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.066003894208368</v>
+        <v>1.066003894208112</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.97203610473861</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.1906127714368</v>
       </c>
       <c r="S25" t="n">
-        <v>41.44924932079266</v>
+        <v>41.4492493207924</v>
       </c>
       <c r="T25" t="n">
-        <v>63.8939099131671</v>
+        <v>64.08371720771522</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3816384050594</v>
+        <v>118.3816384050592</v>
       </c>
       <c r="V25" t="n">
-        <v>247.5568539652793</v>
+        <v>92.20439779455785</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3712838651714</v>
+        <v>117.3712838651711</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01638586097448</v>
+        <v>63.01638586097422</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.89125361704217</v>
+        <v>53.89125361704191</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>266.5656814796316</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3078190495372</v>
+        <v>288.3078190495371</v>
       </c>
       <c r="F26" t="n">
         <v>307.4796351375143</v>
@@ -2570,10 +2570,10 @@
         <v>308.8756490343882</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4608654801276</v>
+        <v>221.4608654801275</v>
       </c>
       <c r="I26" t="n">
-        <v>47.84649830172177</v>
+        <v>47.84649830172174</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58396643302939</v>
+        <v>70.58396643302936</v>
       </c>
       <c r="T26" t="n">
         <v>117.23348377348</v>
       </c>
       <c r="U26" t="n">
-        <v>149.763458957685</v>
+        <v>149.7634589576849</v>
       </c>
       <c r="V26" t="n">
         <v>231.079437717601</v>
@@ -2621,7 +2621,7 @@
         <v>275.6797954283045</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.0763932245033</v>
+        <v>287.0763932245032</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.18977135211898</v>
+        <v>79.18977135211895</v>
       </c>
       <c r="C28" t="n">
-        <v>65.38976619751946</v>
+        <v>65.38976619751944</v>
       </c>
       <c r="D28" t="n">
-        <v>49.01113059509785</v>
+        <v>49.01113059509782</v>
       </c>
       <c r="E28" t="n">
-        <v>47.9588804508773</v>
+        <v>47.95888045087727</v>
       </c>
       <c r="F28" t="n">
-        <v>48.42580477906361</v>
+        <v>48.42580477906358</v>
       </c>
       <c r="G28" t="n">
-        <v>64.45951385139483</v>
+        <v>64.4595138513948</v>
       </c>
       <c r="H28" t="n">
-        <v>53.10622249820872</v>
+        <v>53.10622249820869</v>
       </c>
       <c r="I28" t="n">
-        <v>32.98363402659527</v>
+        <v>32.98363402659524</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66056912601975</v>
+        <v>34.66056912601974</v>
       </c>
       <c r="S28" t="n">
         <v>104.8427592779791</v>
       </c>
       <c r="T28" t="n">
-        <v>127.2874198703536</v>
+        <v>127.2874198703535</v>
       </c>
       <c r="U28" t="n">
         <v>181.7751483622459</v>
       </c>
       <c r="V28" t="n">
-        <v>155.5979077517446</v>
+        <v>155.5979077517445</v>
       </c>
       <c r="W28" t="n">
         <v>180.7647938223578</v>
@@ -2798,7 +2798,7 @@
         <v>266.5656814796316</v>
       </c>
       <c r="E29" t="n">
-        <v>288.3078190495372</v>
+        <v>288.3078190495371</v>
       </c>
       <c r="F29" t="n">
         <v>307.4796351375143</v>
@@ -2807,10 +2807,10 @@
         <v>308.8756490343882</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4608654801276</v>
+        <v>221.4608654801275</v>
       </c>
       <c r="I29" t="n">
-        <v>47.84649830172177</v>
+        <v>47.84649830172174</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58396643302939</v>
+        <v>70.58396643302936</v>
       </c>
       <c r="T29" t="n">
         <v>117.23348377348</v>
       </c>
       <c r="U29" t="n">
-        <v>149.763458957685</v>
+        <v>149.7634589576849</v>
       </c>
       <c r="V29" t="n">
         <v>231.079437717601</v>
@@ -2858,7 +2858,7 @@
         <v>275.6797954283045</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.0763932245033</v>
+        <v>287.0763932245032</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.18977135211898</v>
+        <v>79.18977135211895</v>
       </c>
       <c r="C31" t="n">
-        <v>65.38976619751946</v>
+        <v>65.38976619751944</v>
       </c>
       <c r="D31" t="n">
-        <v>49.01113059509785</v>
+        <v>49.01113059509782</v>
       </c>
       <c r="E31" t="n">
-        <v>47.9588804508773</v>
+        <v>47.95888045087727</v>
       </c>
       <c r="F31" t="n">
-        <v>48.42580477906361</v>
+        <v>48.42580477906358</v>
       </c>
       <c r="G31" t="n">
-        <v>64.45951385139483</v>
+        <v>64.4595138513948</v>
       </c>
       <c r="H31" t="n">
-        <v>53.10622249820872</v>
+        <v>53.10622249820869</v>
       </c>
       <c r="I31" t="n">
-        <v>32.98363402659527</v>
+        <v>32.98363402659524</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66056912601977</v>
+        <v>34.66056912601974</v>
       </c>
       <c r="S31" t="n">
         <v>104.8427592779791</v>
       </c>
       <c r="T31" t="n">
-        <v>127.2874198703536</v>
+        <v>127.2874198703535</v>
       </c>
       <c r="U31" t="n">
         <v>181.7751483622459</v>
       </c>
       <c r="V31" t="n">
-        <v>155.5979077517446</v>
+        <v>155.5979077517445</v>
       </c>
       <c r="W31" t="n">
         <v>180.7647938223578</v>
@@ -3029,25 +3029,25 @@
         <v>284.9833563827019</v>
       </c>
       <c r="C32" t="n">
-        <v>272.9946733403837</v>
+        <v>272.9946733403836</v>
       </c>
       <c r="D32" t="n">
         <v>263.9759773849116</v>
       </c>
       <c r="E32" t="n">
-        <v>285.7181149548172</v>
+        <v>285.7181149548171</v>
       </c>
       <c r="F32" t="n">
         <v>304.8899310427943</v>
       </c>
       <c r="G32" t="n">
-        <v>306.2859449396682</v>
+        <v>306.2859449396681</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8711613854076</v>
+        <v>218.8711613854075</v>
       </c>
       <c r="I32" t="n">
-        <v>45.25679420700179</v>
+        <v>45.25679420700173</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.99426233830941</v>
+        <v>67.99426233830935</v>
       </c>
       <c r="T32" t="n">
-        <v>114.6437796787601</v>
+        <v>114.64377967876</v>
       </c>
       <c r="U32" t="n">
-        <v>147.173754862965</v>
+        <v>147.1737548629649</v>
       </c>
       <c r="V32" t="n">
         <v>228.489733622881</v>
@@ -3092,7 +3092,7 @@
         <v>253.7898331008379</v>
       </c>
       <c r="X32" t="n">
-        <v>273.0900913335846</v>
+        <v>273.0900913335845</v>
       </c>
       <c r="Y32" t="n">
         <v>284.4866891297833</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.600067257399</v>
+        <v>76.60006725739895</v>
       </c>
       <c r="C34" t="n">
-        <v>62.80006210279949</v>
+        <v>62.80006210279943</v>
       </c>
       <c r="D34" t="n">
-        <v>46.42142650037788</v>
+        <v>46.42142650037782</v>
       </c>
       <c r="E34" t="n">
-        <v>45.36917635615733</v>
+        <v>45.36917635615727</v>
       </c>
       <c r="F34" t="n">
-        <v>45.83610068434363</v>
+        <v>45.83610068434358</v>
       </c>
       <c r="G34" t="n">
-        <v>61.86980975667486</v>
+        <v>61.8698097566748</v>
       </c>
       <c r="H34" t="n">
-        <v>50.51651840348874</v>
+        <v>50.51651840348868</v>
       </c>
       <c r="I34" t="n">
-        <v>30.39392993187529</v>
+        <v>30.39392993187523</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07086503129977</v>
+        <v>32.07086503129972</v>
       </c>
       <c r="S34" t="n">
         <v>102.2530551832591</v>
       </c>
       <c r="T34" t="n">
-        <v>124.6977157756336</v>
+        <v>124.6977157756335</v>
       </c>
       <c r="U34" t="n">
-        <v>179.1854442675259</v>
+        <v>179.1854442675258</v>
       </c>
       <c r="V34" t="n">
-        <v>153.0082036570246</v>
+        <v>153.0082036570245</v>
       </c>
       <c r="W34" t="n">
         <v>178.1750897276378</v>
       </c>
       <c r="X34" t="n">
-        <v>123.820191723441</v>
+        <v>123.8201917234409</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.6950594795087</v>
+        <v>114.6950594795086</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>225.4015131561183</v>
       </c>
       <c r="D35" t="n">
-        <v>216.3828172006462</v>
+        <v>216.3828172006463</v>
       </c>
       <c r="E35" t="n">
         <v>238.1249547705518</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.40110215404401</v>
+        <v>20.40110215404403</v>
       </c>
       <c r="T35" t="n">
-        <v>67.05061949449464</v>
+        <v>67.05061949449467</v>
       </c>
       <c r="U35" t="n">
-        <v>99.58059467869958</v>
+        <v>99.58059467869961</v>
       </c>
       <c r="V35" t="n">
-        <v>180.8965734386156</v>
+        <v>180.8965734386157</v>
       </c>
       <c r="W35" t="n">
-        <v>206.1966729165725</v>
+        <v>206.1966729165726</v>
       </c>
       <c r="X35" t="n">
         <v>225.4969311493192</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.00690707313359</v>
+        <v>29.00690707313362</v>
       </c>
       <c r="C37" t="n">
-        <v>15.20690191853407</v>
+        <v>15.2069019185341</v>
       </c>
       <c r="D37" t="n">
-        <v>20.32264116948723</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.27664957240944</v>
+        <v>34.59929074189652</v>
       </c>
       <c r="H37" t="n">
-        <v>2.923358219223322</v>
+        <v>2.92335821922335</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.65989499899374</v>
+        <v>54.65989499899376</v>
       </c>
       <c r="T37" t="n">
-        <v>77.10455559136817</v>
+        <v>77.1045555913682</v>
       </c>
       <c r="U37" t="n">
         <v>131.5922840832605</v>
@@ -3484,13 +3484,13 @@
         <v>105.4150434727592</v>
       </c>
       <c r="W37" t="n">
-        <v>130.5819295433724</v>
+        <v>130.5819295433725</v>
       </c>
       <c r="X37" t="n">
-        <v>76.22703153917556</v>
+        <v>76.22703153917558</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.10189929524324</v>
+        <v>67.10189929524327</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.3901961984365</v>
+        <v>237.3901961984366</v>
       </c>
       <c r="C38" t="n">
-        <v>225.4015131561183</v>
+        <v>225.4015131561184</v>
       </c>
       <c r="D38" t="n">
-        <v>216.3828172006462</v>
+        <v>216.3828172006463</v>
       </c>
       <c r="E38" t="n">
-        <v>238.1249547705518</v>
+        <v>238.1249547705519</v>
       </c>
       <c r="F38" t="n">
-        <v>257.2967708585289</v>
+        <v>257.296770858529</v>
       </c>
       <c r="G38" t="n">
-        <v>258.6927847554028</v>
+        <v>258.6927847554029</v>
       </c>
       <c r="H38" t="n">
-        <v>171.2780012011422</v>
+        <v>171.2780012011423</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.40110215404401</v>
+        <v>20.40110215404411</v>
       </c>
       <c r="T38" t="n">
-        <v>67.05061949449464</v>
+        <v>67.05061949449475</v>
       </c>
       <c r="U38" t="n">
-        <v>99.58059467869958</v>
+        <v>99.5805946786997</v>
       </c>
       <c r="V38" t="n">
-        <v>180.8965734386156</v>
+        <v>180.8965734386157</v>
       </c>
       <c r="W38" t="n">
-        <v>206.1966729165725</v>
+        <v>206.1966729165727</v>
       </c>
       <c r="X38" t="n">
-        <v>225.4969311493192</v>
+        <v>225.4969311493193</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.8935289455179</v>
+        <v>236.893528945518</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.00690707313359</v>
+        <v>29.0069070731337</v>
       </c>
       <c r="C40" t="n">
-        <v>15.20690191853407</v>
+        <v>15.20690191853419</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.27664957240944</v>
+        <v>14.27664957240956</v>
       </c>
       <c r="H40" t="n">
-        <v>2.923358219223321</v>
+        <v>2.923358219223435</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>20.322641169486</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>74.98253616848096</v>
+        <v>54.65989499899385</v>
       </c>
       <c r="T40" t="n">
-        <v>77.10455559136817</v>
+        <v>77.10455559136828</v>
       </c>
       <c r="U40" t="n">
-        <v>131.5922840832605</v>
+        <v>131.5922840832606</v>
       </c>
       <c r="V40" t="n">
-        <v>105.4150434727592</v>
+        <v>105.4150434727593</v>
       </c>
       <c r="W40" t="n">
-        <v>130.5819295433724</v>
+        <v>130.5819295433726</v>
       </c>
       <c r="X40" t="n">
-        <v>76.22703153917556</v>
+        <v>76.22703153917567</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.10189929524324</v>
+        <v>67.10189929524336</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.3901961984364</v>
+        <v>237.3901961984366</v>
       </c>
       <c r="C41" t="n">
-        <v>225.4015131561181</v>
+        <v>225.4015131561183</v>
       </c>
       <c r="D41" t="n">
-        <v>216.3828172006461</v>
+        <v>216.3828172006463</v>
       </c>
       <c r="E41" t="n">
-        <v>238.1249547705517</v>
+        <v>238.1249547705518</v>
       </c>
       <c r="F41" t="n">
-        <v>257.2967708585288</v>
+        <v>257.296770858529</v>
       </c>
       <c r="G41" t="n">
-        <v>258.6927847554027</v>
+        <v>258.6927847554028</v>
       </c>
       <c r="H41" t="n">
-        <v>171.278001201142</v>
+        <v>171.2780012011422</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.40110215404388</v>
+        <v>20.40110215404407</v>
       </c>
       <c r="T41" t="n">
-        <v>67.05061949449453</v>
+        <v>67.0506194944947</v>
       </c>
       <c r="U41" t="n">
-        <v>99.58059467869947</v>
+        <v>99.58059467869964</v>
       </c>
       <c r="V41" t="n">
-        <v>180.8965734386155</v>
+        <v>180.8965734386157</v>
       </c>
       <c r="W41" t="n">
-        <v>206.1966729165724</v>
+        <v>206.1966729165726</v>
       </c>
       <c r="X41" t="n">
-        <v>225.496931149319</v>
+        <v>225.4969311493192</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.8935289455178</v>
+        <v>236.893528945518</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.00690707313348</v>
+        <v>29.00690707313365</v>
       </c>
       <c r="C43" t="n">
-        <v>15.20690191853396</v>
+        <v>15.20690191853413</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.27664957240933</v>
+        <v>14.2766495724095</v>
       </c>
       <c r="H43" t="n">
-        <v>2.923358219223207</v>
+        <v>2.923358219223378</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.65989499899362</v>
+        <v>54.65989499899379</v>
       </c>
       <c r="T43" t="n">
-        <v>77.10455559136805</v>
+        <v>77.10455559136823</v>
       </c>
       <c r="U43" t="n">
-        <v>131.5922840832604</v>
+        <v>151.9149252527472</v>
       </c>
       <c r="V43" t="n">
-        <v>105.4150434727591</v>
+        <v>105.4150434727592</v>
       </c>
       <c r="W43" t="n">
-        <v>130.5819295433723</v>
+        <v>130.5819295433725</v>
       </c>
       <c r="X43" t="n">
-        <v>76.22703153917544</v>
+        <v>76.22703153917561</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.42454046473165</v>
+        <v>67.1018992952433</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.3901961984364</v>
+        <v>237.3901961984366</v>
       </c>
       <c r="C44" t="n">
-        <v>225.4015131561181</v>
+        <v>225.4015131561183</v>
       </c>
       <c r="D44" t="n">
-        <v>216.3828172006461</v>
+        <v>216.3828172006463</v>
       </c>
       <c r="E44" t="n">
-        <v>238.1249547705517</v>
+        <v>238.1249547705518</v>
       </c>
       <c r="F44" t="n">
-        <v>257.2967708585288</v>
+        <v>257.296770858529</v>
       </c>
       <c r="G44" t="n">
-        <v>258.6927847554027</v>
+        <v>258.6927847554028</v>
       </c>
       <c r="H44" t="n">
-        <v>171.278001201142</v>
+        <v>171.2780012011422</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.40110215404388</v>
+        <v>20.40110215404407</v>
       </c>
       <c r="T44" t="n">
-        <v>67.05061949449453</v>
+        <v>67.0506194944947</v>
       </c>
       <c r="U44" t="n">
-        <v>99.58059467869947</v>
+        <v>99.58059467869964</v>
       </c>
       <c r="V44" t="n">
-        <v>180.8965734386155</v>
+        <v>180.8965734386157</v>
       </c>
       <c r="W44" t="n">
-        <v>206.1966729165724</v>
+        <v>206.1966729165726</v>
       </c>
       <c r="X44" t="n">
-        <v>225.496931149319</v>
+        <v>225.4969311493192</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.8935289455178</v>
+        <v>236.893528945518</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.00690707313348</v>
+        <v>29.00690707313365</v>
       </c>
       <c r="C46" t="n">
-        <v>15.20690191853396</v>
+        <v>15.20690191853413</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.27664957240933</v>
+        <v>14.2766495724095</v>
       </c>
       <c r="H46" t="n">
-        <v>23.24599938871165</v>
+        <v>2.923358219223378</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.65989499899362</v>
+        <v>74.98253616848039</v>
       </c>
       <c r="T46" t="n">
-        <v>77.10455559136805</v>
+        <v>77.10455559136823</v>
       </c>
       <c r="U46" t="n">
-        <v>131.5922840832604</v>
+        <v>131.5922840832606</v>
       </c>
       <c r="V46" t="n">
-        <v>105.4150434727591</v>
+        <v>105.4150434727592</v>
       </c>
       <c r="W46" t="n">
-        <v>130.5819295433723</v>
+        <v>130.5819295433725</v>
       </c>
       <c r="X46" t="n">
-        <v>76.22703153917544</v>
+        <v>76.22703153917561</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.10189929524313</v>
+        <v>67.1018992952433</v>
       </c>
     </row>
   </sheetData>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D8" t="n">
         <v>21.02234760148574</v>
@@ -4802,19 +4802,19 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="L8" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>20.6199382928386</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>30.52952028794065</v>
-      </c>
-      <c r="M8" t="n">
-        <v>40.03871513172544</v>
-      </c>
-      <c r="N8" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="O8" t="n">
         <v>40.03871513172544</v>
@@ -4829,25 +4829,25 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S8" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T8" t="n">
         <v>31.13313425091136</v>
       </c>
       <c r="U8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="C9" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="D9" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E9" t="n">
         <v>0.8007743026345088</v>
@@ -4884,49 +4884,49 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K9" t="n">
-        <v>20.21955114152135</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L9" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M9" t="n">
-        <v>30.12913313662339</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N9" t="n">
-        <v>30.12913313662339</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O9" t="n">
         <v>30.12913313662339</v>
       </c>
       <c r="P9" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S9" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="T9" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U9" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X9" t="n">
-        <v>9.70635518344859</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.70635518344859</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="10">
@@ -4966,13 +4966,13 @@
         <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M10" t="n">
-        <v>30.12913313662339</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="N10" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O10" t="n">
         <v>40.03871513172544</v>
@@ -4990,19 +4990,19 @@
         <v>40.03871513172544</v>
       </c>
       <c r="T10" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="U10" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="V10" t="n">
         <v>31.13313425091136</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>21.02234760148574</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>10.91156095206012</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.8007743026345088</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.8007743026345088</v>
       </c>
       <c r="Y10" t="n">
         <v>0.8007743026345088</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1630.31254963855</v>
+        <v>1304.04202573357</v>
       </c>
       <c r="C11" t="n">
-        <v>1337.82983429617</v>
+        <v>1011.55931039119</v>
       </c>
       <c r="D11" t="n">
-        <v>1054.456912848207</v>
+        <v>728.1863889432266</v>
       </c>
       <c r="E11" t="n">
-        <v>749.1222362791264</v>
+        <v>422.8517123741462</v>
       </c>
       <c r="F11" t="n">
-        <v>424.4220889141095</v>
+        <v>350.8884539396294</v>
       </c>
       <c r="G11" t="n">
-        <v>98.31182650174487</v>
+        <v>350.8884539396294</v>
       </c>
       <c r="H11" t="n">
-        <v>98.31182650174487</v>
+        <v>113.075952693185</v>
       </c>
       <c r="I11" t="n">
-        <v>50.63149910169599</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J11" t="n">
         <v>167.7728174862798</v>
@@ -5045,13 +5045,13 @@
         <v>475.5705058676343</v>
       </c>
       <c r="L11" t="n">
-        <v>720.5735509263228</v>
+        <v>720.5735509263233</v>
       </c>
       <c r="M11" t="n">
-        <v>1207.206447688016</v>
+        <v>1207.206447688017</v>
       </c>
       <c r="N11" t="n">
-        <v>1680.442745084106</v>
+        <v>1680.442745084107</v>
       </c>
       <c r="O11" t="n">
         <v>2075.063371992038</v>
@@ -5066,25 +5066,25 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S11" t="n">
-        <v>2531.5749550848</v>
+        <v>2446.163361966737</v>
       </c>
       <c r="T11" t="n">
-        <v>2531.5749550848</v>
+        <v>2313.631044262361</v>
       </c>
       <c r="U11" t="n">
-        <v>2531.5749550848</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="V11" t="n">
-        <v>2531.5749550848</v>
+        <v>1900.711934986613</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.5749550848</v>
+        <v>1900.711934986613</v>
       </c>
       <c r="X11" t="n">
-        <v>2238.995857931106</v>
+        <v>1608.132837832919</v>
       </c>
       <c r="Y11" t="n">
-        <v>1934.905045831756</v>
+        <v>1304.04202573357</v>
       </c>
     </row>
     <row r="12">
@@ -5109,13 +5109,13 @@
         <v>334.5884792963597</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1503391504149</v>
+        <v>206.1503391504152</v>
       </c>
       <c r="H12" t="n">
         <v>109.0167463785074</v>
       </c>
       <c r="I12" t="n">
-        <v>50.63149910169599</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J12" t="n">
         <v>137.7723726368144</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.4189007943462</v>
+        <v>272.0185037494242</v>
       </c>
       <c r="C13" t="n">
-        <v>434.2539745808393</v>
+        <v>191.8535775359174</v>
       </c>
       <c r="D13" t="n">
-        <v>370.6331247334148</v>
+        <v>191.8535775359174</v>
       </c>
       <c r="E13" t="n">
-        <v>308.0751538195465</v>
+        <v>191.8535775359174</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0455421701364</v>
+        <v>191.8535775359174</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8202647910988</v>
+        <v>112.6283001568798</v>
       </c>
       <c r="H13" t="n">
         <v>98.06295847588554</v>
       </c>
       <c r="I13" t="n">
-        <v>50.63149910169599</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J13" t="n">
-        <v>96.30823560199546</v>
+        <v>96.30823560199548</v>
       </c>
       <c r="K13" t="n">
-        <v>245.3024804191787</v>
+        <v>245.3024804191786</v>
       </c>
       <c r="L13" t="n">
-        <v>469.0514186062463</v>
+        <v>469.0514186062462</v>
       </c>
       <c r="M13" t="n">
-        <v>712.1149737064381</v>
+        <v>712.1149737064379</v>
       </c>
       <c r="N13" t="n">
-        <v>954.7180978637573</v>
+        <v>954.7180978637571</v>
       </c>
       <c r="O13" t="n">
         <v>1174.575435216288</v>
       </c>
       <c r="P13" t="n">
-        <v>1354.070502065729</v>
+        <v>1354.070502065728</v>
       </c>
       <c r="Q13" t="n">
         <v>1423.949153884686</v>
@@ -5227,22 +5227,22 @@
         <v>1254.807386297107</v>
       </c>
       <c r="T13" t="n">
-        <v>1135.538618093701</v>
+        <v>1112.119577585788</v>
       </c>
       <c r="U13" t="n">
-        <v>937.8126997946114</v>
+        <v>914.3936592866984</v>
       </c>
       <c r="V13" t="n">
-        <v>937.8126997946114</v>
+        <v>743.1093981699338</v>
       </c>
       <c r="W13" t="n">
-        <v>741.1073416368233</v>
+        <v>546.4040400121457</v>
       </c>
       <c r="X13" t="n">
-        <v>741.1073416368233</v>
+        <v>404.6026192323343</v>
       </c>
       <c r="Y13" t="n">
-        <v>608.5232261539132</v>
+        <v>272.0185037494242</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1271.817069702904</v>
+        <v>1582.6322222385</v>
       </c>
       <c r="C14" t="n">
-        <v>979.3343543605238</v>
+        <v>1290.14950689612</v>
       </c>
       <c r="D14" t="n">
-        <v>695.9614329125602</v>
+        <v>1006.776585448156</v>
       </c>
       <c r="E14" t="n">
-        <v>390.6267563434801</v>
+        <v>701.4419088790759</v>
       </c>
       <c r="F14" t="n">
-        <v>390.6267563434801</v>
+        <v>376.7417615140602</v>
       </c>
       <c r="G14" t="n">
-        <v>64.51649393111586</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H14" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I14" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J14" t="n">
         <v>167.7728174862798</v>
       </c>
       <c r="K14" t="n">
-        <v>288.7532942567083</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L14" t="n">
-        <v>720.5735509263251</v>
+        <v>720.5735509263233</v>
       </c>
       <c r="M14" t="n">
-        <v>1207.206447688019</v>
+        <v>1207.206447688017</v>
       </c>
       <c r="N14" t="n">
-        <v>1680.442745084109</v>
+        <v>1680.442745084107</v>
       </c>
       <c r="O14" t="n">
-        <v>2075.06337199204</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P14" t="n">
-        <v>2379.705487326031</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q14" t="n">
-        <v>2531.574955084802</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="R14" t="n">
-        <v>2531.574955084802</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.16336196674</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="T14" t="n">
-        <v>2446.16336196674</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="U14" t="n">
-        <v>2446.16336196674</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="V14" t="n">
-        <v>2446.16336196674</v>
+        <v>2284.046724305554</v>
       </c>
       <c r="W14" t="n">
-        <v>2173.079475149153</v>
+        <v>2010.962837487968</v>
       </c>
       <c r="X14" t="n">
-        <v>1880.500377995459</v>
+        <v>1886.723034337849</v>
       </c>
       <c r="Y14" t="n">
-        <v>1576.40956589611</v>
+        <v>1582.6322222385</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>206.1503391504149</v>
       </c>
       <c r="H15" t="n">
-        <v>109.0167463785075</v>
+        <v>109.0167463785074</v>
       </c>
       <c r="I15" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J15" t="n">
-        <v>137.7723726368145</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K15" t="n">
-        <v>413.2166240983116</v>
+        <v>50.631499101696</v>
       </c>
       <c r="L15" t="n">
-        <v>840.8288884799131</v>
+        <v>478.2437634832975</v>
       </c>
       <c r="M15" t="n">
-        <v>1397.968746744155</v>
+        <v>1035.38362174754</v>
       </c>
       <c r="N15" t="n">
         <v>1521.129018650603</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.055945977437</v>
+        <v>451.8609298804781</v>
       </c>
       <c r="C16" t="n">
-        <v>266.89101976393</v>
+        <v>371.6960036669712</v>
       </c>
       <c r="D16" t="n">
-        <v>266.89101976393</v>
+        <v>308.0751538195467</v>
       </c>
       <c r="E16" t="n">
-        <v>204.3330488500617</v>
+        <v>308.0751538195467</v>
       </c>
       <c r="F16" t="n">
-        <v>141.3034372006516</v>
+        <v>245.0455421701366</v>
       </c>
       <c r="G16" t="n">
-        <v>118.3888054169092</v>
+        <v>165.8202647910988</v>
       </c>
       <c r="H16" t="n">
-        <v>50.63149910169604</v>
+        <v>98.06295847588554</v>
       </c>
       <c r="I16" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J16" t="n">
-        <v>96.30823560199551</v>
+        <v>96.30823560199548</v>
       </c>
       <c r="K16" t="n">
-        <v>245.3024804191787</v>
+        <v>245.3024804191786</v>
       </c>
       <c r="L16" t="n">
         <v>469.0514186062463</v>
       </c>
       <c r="M16" t="n">
-        <v>712.1149737064383</v>
+        <v>712.114973706438</v>
       </c>
       <c r="N16" t="n">
-        <v>954.7180978637574</v>
+        <v>954.7180978637572</v>
       </c>
       <c r="O16" t="n">
-        <v>1174.575435216289</v>
+        <v>1174.575435216288</v>
       </c>
       <c r="P16" t="n">
-        <v>1354.070502065729</v>
+        <v>1354.070502065728</v>
       </c>
       <c r="Q16" t="n">
         <v>1423.949153884686</v>
       </c>
       <c r="R16" t="n">
-        <v>1423.949153884686</v>
+        <v>1374.823820672694</v>
       </c>
       <c r="S16" t="n">
-        <v>1423.949153884686</v>
+        <v>1254.807386297107</v>
       </c>
       <c r="T16" t="n">
-        <v>1281.261345173367</v>
+        <v>1214.782067959644</v>
       </c>
       <c r="U16" t="n">
-        <v>1083.535426874278</v>
+        <v>1017.056149660555</v>
       </c>
       <c r="V16" t="n">
-        <v>912.2511657575136</v>
+        <v>1017.056149660555</v>
       </c>
       <c r="W16" t="n">
-        <v>715.5458075997255</v>
+        <v>820.3507915027667</v>
       </c>
       <c r="X16" t="n">
-        <v>573.7443868199141</v>
+        <v>678.5493707229552</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.160271337004</v>
+        <v>545.9652552400452</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.553688872589</v>
+        <v>1351.553688872588</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.219479298935</v>
+        <v>1137.219479298934</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9950636196972</v>
+        <v>931.9950636196968</v>
       </c>
       <c r="E17" t="n">
-        <v>704.808892819343</v>
+        <v>704.8088928193429</v>
       </c>
       <c r="F17" t="n">
         <v>458.2572512230522</v>
       </c>
       <c r="G17" t="n">
-        <v>210.2954945794143</v>
+        <v>210.295494579414</v>
       </c>
       <c r="H17" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I17" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J17" t="n">
         <v>167.7728174862798</v>
       </c>
       <c r="K17" t="n">
-        <v>475.5705058676343</v>
+        <v>288.7532942567065</v>
       </c>
       <c r="L17" t="n">
-        <v>720.5735509263251</v>
+        <v>720.5735509263233</v>
       </c>
       <c r="M17" t="n">
-        <v>1207.206447688019</v>
+        <v>1207.206447688017</v>
       </c>
       <c r="N17" t="n">
-        <v>1680.442745084109</v>
+        <v>1680.442745084107</v>
       </c>
       <c r="O17" t="n">
-        <v>2075.06337199204</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P17" t="n">
-        <v>2379.705487326031</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q17" t="n">
-        <v>2531.574955084802</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="R17" t="n">
-        <v>2531.574955084802</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.311867735466</v>
+        <v>2524.311867735464</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.928055799816</v>
+        <v>2469.928055799814</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.685683072039</v>
+        <v>2382.685683072038</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.30595806152</v>
+        <v>2213.305958061519</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.37057701266</v>
+        <v>2018.370577012658</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.939985627692</v>
+        <v>1803.93998562769</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.997679297069</v>
+        <v>1577.997679297068</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>206.1503391504149</v>
       </c>
       <c r="H18" t="n">
-        <v>109.0167463785075</v>
+        <v>109.0167463785074</v>
       </c>
       <c r="I18" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J18" t="n">
-        <v>50.63149910169604</v>
+        <v>137.7723726368144</v>
       </c>
       <c r="K18" t="n">
-        <v>50.63149910169604</v>
+        <v>413.2166240983116</v>
       </c>
       <c r="L18" t="n">
-        <v>478.2437634832975</v>
+        <v>840.8288884799131</v>
       </c>
       <c r="M18" t="n">
-        <v>1035.38362174754</v>
+        <v>1397.968746744155</v>
       </c>
       <c r="N18" t="n">
-        <v>1620.664217245915</v>
+        <v>1521.129018650603</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.573386714349</v>
+        <v>1981.038188119038</v>
       </c>
       <c r="P18" t="n">
-        <v>2437.011923334349</v>
+        <v>2337.476724739037</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.574955084799</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.4927922335385</v>
+        <v>53.72469115678777</v>
       </c>
       <c r="C19" t="n">
-        <v>94.55515476705247</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="D19" t="n">
-        <v>94.55515476705247</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="E19" t="n">
-        <v>94.55515476705247</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="F19" t="n">
-        <v>94.55515476705247</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="G19" t="n">
-        <v>93.47838315674099</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H19" t="n">
-        <v>93.47838315674099</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I19" t="n">
-        <v>93.47838315674099</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J19" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K19" t="n">
         <v>111.9547763562302</v>
       </c>
       <c r="L19" t="n">
-        <v>248.0327469806489</v>
+        <v>248.0327469806488</v>
       </c>
       <c r="M19" t="n">
         <v>403.4253345181916</v>
@@ -5692,31 +5692,31 @@
         <v>782.3679601895349</v>
       </c>
       <c r="Q19" t="n">
-        <v>764.2143883665666</v>
+        <v>782.3679601895349</v>
       </c>
       <c r="R19" t="n">
-        <v>764.2143883665666</v>
+        <v>782.3679601895349</v>
       </c>
       <c r="S19" t="n">
-        <v>722.3464597597053</v>
+        <v>583.5783586829527</v>
       </c>
       <c r="T19" t="n">
-        <v>657.8071568171123</v>
+        <v>519.03905574036</v>
       </c>
       <c r="U19" t="n">
-        <v>538.2297442867492</v>
+        <v>399.4616432099972</v>
       </c>
       <c r="V19" t="n">
-        <v>445.0939889387107</v>
+        <v>306.325887861959</v>
       </c>
       <c r="W19" t="n">
-        <v>326.5371365496487</v>
+        <v>187.7690354728973</v>
       </c>
       <c r="X19" t="n">
-        <v>262.8842215385634</v>
+        <v>124.1161204618122</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.4486118243794</v>
+        <v>69.68051074762843</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.553688872588</v>
+        <v>1351.553688872589</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.219479298934</v>
+        <v>1137.219479298935</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9950636196966</v>
+        <v>931.9950636196977</v>
       </c>
       <c r="E20" t="n">
-        <v>704.8088928193423</v>
+        <v>704.8088928193438</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2572512230515</v>
+        <v>458.2572512230531</v>
       </c>
       <c r="G20" t="n">
-        <v>210.2954945794143</v>
+        <v>210.295494579414</v>
       </c>
       <c r="H20" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I20" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J20" t="n">
         <v>167.7728174862798</v>
@@ -5759,31 +5759,31 @@
         <v>907.3907625372511</v>
       </c>
       <c r="M20" t="n">
-        <v>1207.206447688019</v>
+        <v>1207.206447688017</v>
       </c>
       <c r="N20" t="n">
-        <v>1680.442745084109</v>
+        <v>1680.442745084107</v>
       </c>
       <c r="O20" t="n">
-        <v>2075.06337199204</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P20" t="n">
-        <v>2379.705487326031</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q20" t="n">
-        <v>2531.574955084802</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="R20" t="n">
-        <v>2531.574955084802</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.311867735466</v>
+        <v>2524.311867735464</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.928055799815</v>
+        <v>2469.928055799814</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.685683072039</v>
+        <v>2382.685683072038</v>
       </c>
       <c r="V20" t="n">
         <v>2213.305958061519</v>
@@ -5795,7 +5795,7 @@
         <v>1803.939985627691</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.997679297068</v>
+        <v>1577.997679297069</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>206.1503391504149</v>
       </c>
       <c r="H21" t="n">
-        <v>109.0167463785075</v>
+        <v>109.0167463785074</v>
       </c>
       <c r="I21" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J21" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K21" t="n">
         <v>326.0757505631932</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.72469115678832</v>
+        <v>210.6463640565087</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70827071200752</v>
+        <v>208.6299436117282</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70827071200752</v>
+        <v>208.6299436117282</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70827071200752</v>
+        <v>208.6299436117282</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70827071200752</v>
+        <v>208.6299436117282</v>
       </c>
       <c r="G22" t="n">
-        <v>50.63149910169604</v>
+        <v>207.553172001417</v>
       </c>
       <c r="H22" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I22" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J22" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K22" t="n">
         <v>111.9547763562302</v>
       </c>
       <c r="L22" t="n">
-        <v>248.0327469806489</v>
+        <v>248.0327469806488</v>
       </c>
       <c r="M22" t="n">
         <v>403.4253345181916</v>
@@ -5929,31 +5929,31 @@
         <v>782.3679601895349</v>
       </c>
       <c r="Q22" t="n">
-        <v>764.2143883665666</v>
+        <v>782.3679601895349</v>
       </c>
       <c r="R22" t="n">
-        <v>625.6380118297617</v>
+        <v>782.3679601895349</v>
       </c>
       <c r="S22" t="n">
-        <v>583.7700832229004</v>
+        <v>740.5000315826738</v>
       </c>
       <c r="T22" t="n">
-        <v>519.0390557403622</v>
+        <v>675.960728640081</v>
       </c>
       <c r="U22" t="n">
-        <v>399.4616432099991</v>
+        <v>556.3833161097182</v>
       </c>
       <c r="V22" t="n">
-        <v>306.3258878619606</v>
+        <v>463.2475607616799</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7690354728986</v>
+        <v>344.6907083726182</v>
       </c>
       <c r="X22" t="n">
-        <v>124.1161204618133</v>
+        <v>281.0377933615331</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.68051074762926</v>
+        <v>226.6021836473494</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.553688872589</v>
+        <v>1351.553688872587</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.219479298935</v>
+        <v>1137.219479298934</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9950636196975</v>
+        <v>931.9950636196963</v>
       </c>
       <c r="E23" t="n">
-        <v>704.8088928193432</v>
+        <v>704.8088928193424</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2572512230524</v>
+        <v>458.2572512230519</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2954945794143</v>
+        <v>210.295494579414</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J23" t="n">
         <v>167.7728174862798</v>
@@ -5999,40 +5999,40 @@
         <v>1394.023659298945</v>
       </c>
       <c r="N23" t="n">
-        <v>1680.442745084109</v>
+        <v>1867.259956695034</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.06337199204</v>
+        <v>2261.880583602966</v>
       </c>
       <c r="P23" t="n">
-        <v>2379.705487326031</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.574955084802</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.574955084803</v>
+        <v>2531.574955084798</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.311867735466</v>
+        <v>2524.311867735462</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.928055799816</v>
+        <v>2469.928055799813</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.68568307204</v>
+        <v>2382.685683072037</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.30595806152</v>
+        <v>2213.305958061517</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.37057701266</v>
+        <v>2018.370577012658</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.939985627692</v>
+        <v>1803.93998562769</v>
       </c>
       <c r="Y23" t="n">
-        <v>1577.997679297069</v>
+        <v>1577.997679297067</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.8525970584468</v>
+        <v>916.8525970584473</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1489242994015</v>
+        <v>755.1489242994021</v>
       </c>
       <c r="D24" t="n">
-        <v>616.3102872896136</v>
+        <v>616.3102872896141</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2822773464849</v>
+        <v>469.2822773464852</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5884792963592</v>
+        <v>334.5884792963597</v>
       </c>
       <c r="G24" t="n">
         <v>206.1503391504149</v>
       </c>
       <c r="H24" t="n">
-        <v>109.0167463785075</v>
+        <v>109.0167463785074</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63149910169604</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J24" t="n">
-        <v>137.7723726368145</v>
+        <v>137.7723726368144</v>
       </c>
       <c r="K24" t="n">
         <v>413.2166240983116</v>
@@ -6078,34 +6078,34 @@
         <v>1397.968746744155</v>
       </c>
       <c r="N24" t="n">
-        <v>1521.129018650603</v>
+        <v>1521.129018650604</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.038188119038</v>
+        <v>1981.038188119039</v>
       </c>
       <c r="P24" t="n">
-        <v>2337.476724739037</v>
+        <v>2337.476724739038</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.574955084799</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="R24" t="n">
-        <v>2489.818465848146</v>
+        <v>2489.818465848147</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.412285366657</v>
+        <v>2342.412285366658</v>
       </c>
       <c r="T24" t="n">
-        <v>2154.897535411934</v>
+        <v>2154.897535411935</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.42184563069</v>
+        <v>1936.421845630691</v>
       </c>
       <c r="V24" t="n">
-        <v>1708.026223079024</v>
+        <v>1708.026223079025</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.710354312334</v>
+        <v>1466.710354312335</v>
       </c>
       <c r="X24" t="n">
         <v>1268.793366190129</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1802.931686052055</v>
+        <v>53.72469115678777</v>
       </c>
       <c r="C25" t="n">
-        <v>1800.915265607274</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="D25" t="n">
-        <v>1800.915265607274</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="E25" t="n">
-        <v>1800.915265607274</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="F25" t="n">
-        <v>1800.915265607274</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="G25" t="n">
-        <v>1799.838493996963</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H25" t="n">
-        <v>1799.838493996963</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I25" t="n">
-        <v>1799.838493996963</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J25" t="n">
-        <v>1799.838493996963</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K25" t="n">
-        <v>1861.161771251497</v>
+        <v>111.9547763562302</v>
       </c>
       <c r="L25" t="n">
-        <v>1997.239741875915</v>
+        <v>248.0327469806488</v>
       </c>
       <c r="M25" t="n">
-        <v>2152.632329413458</v>
+        <v>403.4253345181916</v>
       </c>
       <c r="N25" t="n">
-        <v>2307.564486008128</v>
+        <v>558.3574911128617</v>
       </c>
       <c r="O25" t="n">
-        <v>2439.750855798011</v>
+        <v>690.543860902744</v>
       </c>
       <c r="P25" t="n">
-        <v>2531.574955084802</v>
+        <v>782.3679601895349</v>
       </c>
       <c r="Q25" t="n">
-        <v>2531.574955084802</v>
+        <v>764.2143883665666</v>
       </c>
       <c r="R25" t="n">
-        <v>2531.574955084802</v>
+        <v>625.6380118297617</v>
       </c>
       <c r="S25" t="n">
-        <v>2489.70702647794</v>
+        <v>583.7700832229007</v>
       </c>
       <c r="T25" t="n">
-        <v>2425.167723535347</v>
+        <v>519.03905574036</v>
       </c>
       <c r="U25" t="n">
-        <v>2305.590311004984</v>
+        <v>399.4616432099972</v>
       </c>
       <c r="V25" t="n">
-        <v>2055.532882757227</v>
+        <v>306.325887861959</v>
       </c>
       <c r="W25" t="n">
-        <v>1936.976030368165</v>
+        <v>187.7690354728973</v>
       </c>
       <c r="X25" t="n">
-        <v>1873.32311535708</v>
+        <v>124.1161204618122</v>
       </c>
       <c r="Y25" t="n">
-        <v>1818.887505642896</v>
+        <v>69.68051074762843</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.36828342834</v>
+        <v>1803.368283428341</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.000225413084</v>
+        <v>1525.000225413085</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.741961292244</v>
+        <v>1255.741961292245</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5219420502873</v>
+        <v>964.5219420502882</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9364520123938</v>
+        <v>653.936452012395</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9408469271538</v>
+        <v>341.9408469271543</v>
       </c>
       <c r="H26" t="n">
         <v>118.2430030078329</v>
       </c>
       <c r="I26" t="n">
-        <v>69.91320674346751</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="J26" t="n">
         <v>288.5592683370142</v>
       </c>
       <c r="K26" t="n">
-        <v>697.8616999273315</v>
+        <v>597.7292596894084</v>
       </c>
       <c r="L26" t="n">
-        <v>1231.186699805911</v>
+        <v>1131.054259567988</v>
       </c>
       <c r="M26" t="n">
-        <v>1819.324339776568</v>
+        <v>1719.191899538645</v>
       </c>
       <c r="N26" t="n">
-        <v>2394.06538038162</v>
+        <v>2293.932940143697</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.058310260592</v>
+        <v>2790.058310260591</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.205168803546</v>
+        <v>3196.205168803545</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.57937977128</v>
+        <v>3449.579379771279</v>
       </c>
       <c r="R26" t="n">
         <v>3495.660337173375</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.363401382437</v>
+        <v>3424.363401382436</v>
       </c>
       <c r="T26" t="n">
-        <v>3305.945741005184</v>
+        <v>3305.945741005183</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.669519835804</v>
+        <v>3154.669519835805</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.255946383681</v>
+        <v>2921.255946383682</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.286716893219</v>
+        <v>2662.28671689322</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.822277066649</v>
+        <v>2383.82227706665</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.846122294423</v>
+        <v>2093.846122294424</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>128.2984540202789</v>
       </c>
       <c r="I27" t="n">
-        <v>69.91320674346751</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="J27" t="n">
         <v>157.0540802785859</v>
@@ -6309,19 +6309,19 @@
         <v>432.4983317400831</v>
       </c>
       <c r="L27" t="n">
-        <v>860.1105961216847</v>
+        <v>432.4983317400831</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.250454385927</v>
+        <v>989.638190004325</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.410726292375</v>
+        <v>1574.9187855027</v>
       </c>
       <c r="O27" t="n">
-        <v>2000.319895760809</v>
+        <v>2034.827954971135</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.758432380809</v>
+        <v>2391.266491591134</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.85666272657</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.8980071462525</v>
+        <v>434.8980071462521</v>
       </c>
       <c r="C28" t="n">
-        <v>368.8477382598692</v>
+        <v>368.8477382598688</v>
       </c>
       <c r="D28" t="n">
-        <v>319.3415457395683</v>
+        <v>319.341545739568</v>
       </c>
       <c r="E28" t="n">
-        <v>270.8982321528235</v>
+        <v>270.8982321528233</v>
       </c>
       <c r="F28" t="n">
-        <v>221.983277830537</v>
+        <v>221.9832778305368</v>
       </c>
       <c r="G28" t="n">
-        <v>156.8726577786231</v>
+        <v>156.8726577786229</v>
       </c>
       <c r="H28" t="n">
         <v>103.2300087905334</v>
       </c>
       <c r="I28" t="n">
-        <v>69.91320674346751</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4237188900808</v>
+        <v>129.4237188900806</v>
       </c>
       <c r="K28" t="n">
-        <v>292.2517393535778</v>
+        <v>292.2517393535777</v>
       </c>
       <c r="L28" t="n">
-        <v>529.8344531869599</v>
+        <v>529.8344531869592</v>
       </c>
       <c r="M28" t="n">
-        <v>786.7317839334655</v>
+        <v>786.7317839334648</v>
       </c>
       <c r="N28" t="n">
         <v>1043.168683737098</v>
       </c>
       <c r="O28" t="n">
-        <v>1276.859796735944</v>
+        <v>1276.859796735943</v>
       </c>
       <c r="P28" t="n">
         <v>1470.188639231697</v>
       </c>
       <c r="Q28" t="n">
-        <v>1553.901066696969</v>
+        <v>1553.901066696968</v>
       </c>
       <c r="R28" t="n">
-        <v>1518.890390812101</v>
+        <v>1518.8903908121</v>
       </c>
       <c r="S28" t="n">
-        <v>1412.988613763637</v>
+        <v>1412.988613763636</v>
       </c>
       <c r="T28" t="n">
         <v>1284.415462379441</v>
       </c>
       <c r="U28" t="n">
-        <v>1100.804201407476</v>
+        <v>1100.804201407475</v>
       </c>
       <c r="V28" t="n">
-        <v>943.6345976178346</v>
+        <v>943.6345976178344</v>
       </c>
       <c r="W28" t="n">
-        <v>761.0438967871702</v>
+        <v>761.04389678717</v>
       </c>
       <c r="X28" t="n">
-        <v>633.3571333344823</v>
+        <v>633.3571333344821</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.8876751786959</v>
+        <v>514.8876751786955</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.368283428342</v>
+        <v>1803.368283428341</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.000225413085</v>
+        <v>1525.000225413084</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.741961292245</v>
+        <v>1255.741961292244</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5219420502887</v>
+        <v>964.5219420502875</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9364520123954</v>
+        <v>653.9364520123943</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9408469271548</v>
+        <v>341.9408469271536</v>
       </c>
       <c r="H29" t="n">
         <v>118.2430030078329</v>
       </c>
       <c r="I29" t="n">
-        <v>69.91320674346751</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="J29" t="n">
         <v>288.5592683370142</v>
@@ -6467,46 +6467,46 @@
         <v>697.8616999273315</v>
       </c>
       <c r="L29" t="n">
-        <v>1131.054259567989</v>
+        <v>1231.186699805911</v>
       </c>
       <c r="M29" t="n">
-        <v>1719.191899538645</v>
+        <v>1819.324339776568</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.932940143698</v>
+        <v>2394.06538038162</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.058310260592</v>
+        <v>2890.190750498515</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.205168803546</v>
+        <v>3196.205168803545</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.57937977128</v>
+        <v>3449.579379771279</v>
       </c>
       <c r="R29" t="n">
         <v>3495.660337173375</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.363401382437</v>
+        <v>3424.363401382436</v>
       </c>
       <c r="T29" t="n">
-        <v>3305.945741005185</v>
+        <v>3305.945741005183</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.669519835805</v>
+        <v>3154.669519835804</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.255946383682</v>
+        <v>2921.255946383681</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.28671689322</v>
+        <v>2662.286716893219</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.82227706665</v>
+        <v>2383.822277066649</v>
       </c>
       <c r="Y29" t="n">
-        <v>2093.846122294424</v>
+        <v>2093.846122294423</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>128.2984540202789</v>
       </c>
       <c r="I30" t="n">
-        <v>69.91320674346751</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="J30" t="n">
-        <v>69.91320674346751</v>
+        <v>157.0540802785859</v>
       </c>
       <c r="K30" t="n">
-        <v>69.91320674346751</v>
+        <v>432.4983317400831</v>
       </c>
       <c r="L30" t="n">
-        <v>497.525471125069</v>
+        <v>860.1105961216846</v>
       </c>
       <c r="M30" t="n">
-        <v>1054.665329389311</v>
+        <v>1417.250454385927</v>
       </c>
       <c r="N30" t="n">
-        <v>1639.945924887686</v>
+        <v>1540.410726292375</v>
       </c>
       <c r="O30" t="n">
-        <v>2099.855094356121</v>
+        <v>2000.319895760809</v>
       </c>
       <c r="P30" t="n">
-        <v>2456.29363097612</v>
+        <v>2356.758432380809</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.85666272657</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.8980071462525</v>
+        <v>434.8980071462523</v>
       </c>
       <c r="C31" t="n">
-        <v>368.8477382598692</v>
+        <v>368.8477382598691</v>
       </c>
       <c r="D31" t="n">
-        <v>319.3415457395683</v>
+        <v>319.3415457395682</v>
       </c>
       <c r="E31" t="n">
         <v>270.8982321528235</v>
@@ -6616,16 +6616,16 @@
         <v>103.2300087905334</v>
       </c>
       <c r="I31" t="n">
-        <v>69.91320674346751</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4237188900806</v>
+        <v>129.4237188900809</v>
       </c>
       <c r="K31" t="n">
-        <v>292.2517393535777</v>
+        <v>292.2517393535779</v>
       </c>
       <c r="L31" t="n">
-        <v>529.8344531869592</v>
+        <v>529.8344531869593</v>
       </c>
       <c r="M31" t="n">
         <v>786.7317839334651</v>
@@ -6655,16 +6655,16 @@
         <v>1100.804201407476</v>
       </c>
       <c r="V31" t="n">
-        <v>943.6345976178349</v>
+        <v>943.6345976178346</v>
       </c>
       <c r="W31" t="n">
-        <v>761.0438967871704</v>
+        <v>761.0438967871702</v>
       </c>
       <c r="X31" t="n">
-        <v>633.3571333344826</v>
+        <v>633.3571333344823</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.8876751786959</v>
+        <v>514.8876751786958</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1784.256470072131</v>
+        <v>1784.25647007213</v>
       </c>
       <c r="C32" t="n">
-        <v>1508.504274778814</v>
+        <v>1508.504274778812</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.861873379914</v>
+        <v>1241.861873379912</v>
       </c>
       <c r="E32" t="n">
-        <v>953.2577168598964</v>
+        <v>953.2577168598946</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2880895439425</v>
+        <v>645.2880895439414</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9083471806414</v>
+        <v>335.9083471806403</v>
       </c>
       <c r="H32" t="n">
-        <v>114.8263659832591</v>
+        <v>114.826365983259</v>
       </c>
       <c r="I32" t="n">
-        <v>69.112432440833</v>
+        <v>69.11243244083299</v>
       </c>
       <c r="J32" t="n">
         <v>290.3223010881525</v>
@@ -6707,43 +6707,43 @@
         <v>1238.077346664595</v>
       </c>
       <c r="M32" t="n">
-        <v>1724.710243426289</v>
+        <v>1828.778793689024</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.015091085114</v>
+        <v>2347.707547059616</v>
       </c>
       <c r="O32" t="n">
-        <v>2742.328173967549</v>
+        <v>2742.328173967548</v>
       </c>
       <c r="P32" t="n">
-        <v>3151.038839564275</v>
+        <v>3151.038839564274</v>
       </c>
       <c r="Q32" t="n">
-        <v>3406.976857585782</v>
+        <v>3406.976857585781</v>
       </c>
       <c r="R32" t="n">
-        <v>3455.62162204165</v>
+        <v>3455.621622041649</v>
       </c>
       <c r="S32" t="n">
-        <v>3386.940548972651</v>
+        <v>3386.94054897265</v>
       </c>
       <c r="T32" t="n">
-        <v>3271.138751317339</v>
+        <v>3271.138751317336</v>
       </c>
       <c r="U32" t="n">
-        <v>3122.478392869898</v>
+        <v>3122.478392869896</v>
       </c>
       <c r="V32" t="n">
-        <v>2891.680682139715</v>
+        <v>2891.680682139713</v>
       </c>
       <c r="W32" t="n">
-        <v>2635.327315371192</v>
+        <v>2635.32731537119</v>
       </c>
       <c r="X32" t="n">
-        <v>2359.478738266561</v>
+        <v>2359.478738266559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2072.118446216275</v>
+        <v>2072.118446216273</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>127.4976797176444</v>
       </c>
       <c r="I33" t="n">
-        <v>69.112432440833</v>
+        <v>69.11243244083299</v>
       </c>
       <c r="J33" t="n">
         <v>156.2533059759514</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.7861937900423</v>
+        <v>415.7861937900419</v>
       </c>
       <c r="C34" t="n">
-        <v>352.3517876255984</v>
+        <v>352.351787625598</v>
       </c>
       <c r="D34" t="n">
-        <v>305.4614578272369</v>
+        <v>305.4614578272366</v>
       </c>
       <c r="E34" t="n">
-        <v>259.6340069624315</v>
+        <v>259.6340069624313</v>
       </c>
       <c r="F34" t="n">
-        <v>213.3349153620844</v>
+        <v>213.3349153620842</v>
       </c>
       <c r="G34" t="n">
-        <v>150.8401580321098</v>
+        <v>150.8401580321097</v>
       </c>
       <c r="H34" t="n">
-        <v>99.81337176595956</v>
+        <v>99.81337176595949</v>
       </c>
       <c r="I34" t="n">
-        <v>69.112432440833</v>
+        <v>69.11243244083299</v>
       </c>
       <c r="J34" t="n">
         <v>131.1867516412191</v>
       </c>
       <c r="K34" t="n">
-        <v>296.5785791584889</v>
+        <v>296.578579158489</v>
       </c>
       <c r="L34" t="n">
-        <v>536.7251000456431</v>
+        <v>536.7251000456433</v>
       </c>
       <c r="M34" t="n">
-        <v>733.8219778647097</v>
+        <v>796.1862378459218</v>
       </c>
       <c r="N34" t="n">
-        <v>992.8226847221154</v>
+        <v>1055.186944703328</v>
       </c>
       <c r="O34" t="n">
-        <v>1229.077604774733</v>
+        <v>1229.077604774732</v>
       </c>
       <c r="P34" t="n">
-        <v>1424.97025432426</v>
+        <v>1424.970254324259</v>
       </c>
       <c r="Q34" t="n">
-        <v>1511.246488843304</v>
+        <v>1511.246488843303</v>
       </c>
       <c r="R34" t="n">
-        <v>1478.851675680375</v>
+        <v>1478.851675680374</v>
       </c>
       <c r="S34" t="n">
-        <v>1375.565761353851</v>
+        <v>1375.56576135385</v>
       </c>
       <c r="T34" t="n">
-        <v>1249.608472691595</v>
+        <v>1249.608472691594</v>
       </c>
       <c r="U34" t="n">
-        <v>1068.613074441569</v>
+        <v>1068.613074441568</v>
       </c>
       <c r="V34" t="n">
-        <v>914.059333373867</v>
+        <v>914.0593333738665</v>
       </c>
       <c r="W34" t="n">
-        <v>734.084495265142</v>
+        <v>734.0844952651414</v>
       </c>
       <c r="X34" t="n">
-        <v>609.0135945343935</v>
+        <v>609.013594534393</v>
       </c>
       <c r="Y34" t="n">
-        <v>493.1599991005464</v>
+        <v>493.1599991005459</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1435.430804289739</v>
+        <v>1435.43080428974</v>
       </c>
       <c r="C35" t="n">
         <v>1207.752508172448</v>
       </c>
       <c r="D35" t="n">
-        <v>989.184005949573</v>
+        <v>989.1840059495734</v>
       </c>
       <c r="E35" t="n">
-        <v>748.6537486055812</v>
+        <v>748.6537486055817</v>
       </c>
       <c r="F35" t="n">
-        <v>488.7580204656531</v>
+        <v>488.7580204656533</v>
       </c>
       <c r="G35" t="n">
         <v>227.4521772783768</v>
@@ -6965,19 +6965,19 @@
         <v>2701.597588958079</v>
       </c>
       <c r="T35" t="n">
-        <v>2633.869690478791</v>
+        <v>2633.869690478792</v>
       </c>
       <c r="U35" t="n">
-        <v>2533.283231207377</v>
+        <v>2533.283231207378</v>
       </c>
       <c r="V35" t="n">
-        <v>2350.55941965322</v>
+        <v>2350.559419653221</v>
       </c>
       <c r="W35" t="n">
         <v>2142.279952060723</v>
       </c>
       <c r="X35" t="n">
-        <v>1914.505274132117</v>
+        <v>1914.505274132118</v>
       </c>
       <c r="Y35" t="n">
         <v>1675.218881257857</v>
@@ -7017,7 +7017,7 @@
         <v>141.5849687921395</v>
       </c>
       <c r="K36" t="n">
-        <v>417.0292202536366</v>
+        <v>417.0292202536367</v>
       </c>
       <c r="L36" t="n">
         <v>844.6414846352382</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.7062678627322</v>
+        <v>107.7062678627321</v>
       </c>
       <c r="C37" t="n">
-        <v>92.345760874314</v>
+        <v>92.34576087431385</v>
       </c>
       <c r="D37" t="n">
-        <v>71.81784050109457</v>
+        <v>92.34576087431385</v>
       </c>
       <c r="E37" t="n">
-        <v>71.81784050109457</v>
+        <v>92.34576087431385</v>
       </c>
       <c r="F37" t="n">
-        <v>71.81784050109457</v>
+        <v>92.34576087431385</v>
       </c>
       <c r="G37" t="n">
-        <v>57.39698234714562</v>
+        <v>57.39698234714565</v>
       </c>
       <c r="H37" t="n">
         <v>54.44409525702105</v>
@@ -7099,7 +7099,7 @@
         <v>115.7673725115552</v>
       </c>
       <c r="L37" t="n">
-        <v>251.8453431359738</v>
+        <v>251.8453431359739</v>
       </c>
       <c r="M37" t="n">
         <v>407.2379306735166</v>
@@ -7135,10 +7135,10 @@
         <v>281.7828718097549</v>
       </c>
       <c r="X37" t="n">
-        <v>204.7858702550321</v>
+        <v>204.785870255032</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.0061739972106</v>
+        <v>137.0061739972105</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1435.430804289738</v>
+        <v>1435.430804289739</v>
       </c>
       <c r="C38" t="n">
-        <v>1207.752508172447</v>
+        <v>1207.752508172448</v>
       </c>
       <c r="D38" t="n">
-        <v>989.1840059495717</v>
+        <v>989.1840059495726</v>
       </c>
       <c r="E38" t="n">
-        <v>748.6537486055799</v>
+        <v>748.6537486055807</v>
       </c>
       <c r="F38" t="n">
-        <v>488.7580204656517</v>
+        <v>488.7580204656524</v>
       </c>
       <c r="G38" t="n">
-        <v>227.4521772783768</v>
+        <v>227.4521772783769</v>
       </c>
       <c r="H38" t="n">
-        <v>54.44409525702102</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I38" t="n">
-        <v>54.44409525702102</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J38" t="n">
-        <v>171.5854136416048</v>
+        <v>171.5854136416051</v>
       </c>
       <c r="K38" t="n">
-        <v>479.3831020229593</v>
+        <v>479.3831020229595</v>
       </c>
       <c r="L38" t="n">
-        <v>911.2033586925761</v>
+        <v>911.2033586925763</v>
       </c>
       <c r="M38" t="n">
-        <v>1397.836255454268</v>
+        <v>1397.83625545427</v>
       </c>
       <c r="N38" t="n">
-        <v>1871.072552850358</v>
+        <v>1871.072552850359</v>
       </c>
       <c r="O38" t="n">
-        <v>2265.693179758289</v>
+        <v>2265.693179758291</v>
       </c>
       <c r="P38" t="n">
-        <v>2570.33529509228</v>
+        <v>2570.335295092282</v>
       </c>
       <c r="Q38" t="n">
-        <v>2722.204762851051</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="R38" t="n">
-        <v>2722.204762851051</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="S38" t="n">
-        <v>2701.597588958077</v>
+        <v>2701.597588958079</v>
       </c>
       <c r="T38" t="n">
-        <v>2633.86969047879</v>
+        <v>2633.869690478792</v>
       </c>
       <c r="U38" t="n">
-        <v>2533.283231207376</v>
+        <v>2533.283231207377</v>
       </c>
       <c r="V38" t="n">
-        <v>2350.559419653219</v>
+        <v>2350.55941965322</v>
       </c>
       <c r="W38" t="n">
-        <v>2142.279952060721</v>
+        <v>2142.279952060723</v>
       </c>
       <c r="X38" t="n">
-        <v>1914.505274132116</v>
+        <v>1914.505274132117</v>
       </c>
       <c r="Y38" t="n">
-        <v>1675.218881257855</v>
+        <v>1675.218881257857</v>
       </c>
     </row>
     <row r="39">
@@ -7245,16 +7245,16 @@
         <v>209.9629353057399</v>
       </c>
       <c r="H39" t="n">
-        <v>112.8293425338324</v>
+        <v>112.8293425338325</v>
       </c>
       <c r="I39" t="n">
-        <v>54.44409525702102</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J39" t="n">
-        <v>141.5849687921394</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="K39" t="n">
-        <v>417.0292202536366</v>
+        <v>417.0292202536367</v>
       </c>
       <c r="L39" t="n">
         <v>844.6414846352382</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.17834748951277</v>
+        <v>107.7062678627313</v>
       </c>
       <c r="C40" t="n">
-        <v>71.81784050109452</v>
+        <v>92.34576087431297</v>
       </c>
       <c r="D40" t="n">
-        <v>71.81784050109452</v>
+        <v>92.34576087431297</v>
       </c>
       <c r="E40" t="n">
-        <v>71.81784050109452</v>
+        <v>92.34576087431297</v>
       </c>
       <c r="F40" t="n">
-        <v>71.81784050109452</v>
+        <v>92.34576087431297</v>
       </c>
       <c r="G40" t="n">
-        <v>57.39698234714559</v>
+        <v>77.92490272036392</v>
       </c>
       <c r="H40" t="n">
-        <v>54.44409525702102</v>
+        <v>74.97201563023924</v>
       </c>
       <c r="I40" t="n">
-        <v>54.44409525702102</v>
+        <v>74.97201563023924</v>
       </c>
       <c r="J40" t="n">
-        <v>54.44409525702102</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K40" t="n">
         <v>115.7673725115552</v>
       </c>
       <c r="L40" t="n">
-        <v>251.8453431359738</v>
+        <v>251.8453431359739</v>
       </c>
       <c r="M40" t="n">
         <v>407.2379306735166</v>
@@ -7357,25 +7357,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S40" t="n">
-        <v>710.4406208211418</v>
+        <v>730.9685411943611</v>
       </c>
       <c r="T40" t="n">
-        <v>632.5572313349113</v>
+        <v>653.0851517081305</v>
       </c>
       <c r="U40" t="n">
-        <v>499.6357322609108</v>
+        <v>520.1636526341299</v>
       </c>
       <c r="V40" t="n">
-        <v>393.1558903692348</v>
+        <v>413.6838107424538</v>
       </c>
       <c r="W40" t="n">
-        <v>261.2549514365354</v>
+        <v>281.7828718097543</v>
       </c>
       <c r="X40" t="n">
-        <v>184.2579498818126</v>
+        <v>204.7858702550314</v>
       </c>
       <c r="Y40" t="n">
-        <v>116.4782536239912</v>
+        <v>137.0061739972098</v>
       </c>
     </row>
     <row r="41">
@@ -7394,64 +7394,64 @@
         <v>989.1840059495723</v>
       </c>
       <c r="E41" t="n">
-        <v>748.6537486055807</v>
+        <v>748.6537486055806</v>
       </c>
       <c r="F41" t="n">
-        <v>488.7580204656526</v>
+        <v>488.7580204656524</v>
       </c>
       <c r="G41" t="n">
-        <v>227.4521772783766</v>
+        <v>227.4521772783768</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44409525702102</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44409525701906</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J41" t="n">
-        <v>171.5854136416029</v>
+        <v>171.5854136416042</v>
       </c>
       <c r="K41" t="n">
-        <v>479.3831020229574</v>
+        <v>479.3831020229587</v>
       </c>
       <c r="L41" t="n">
-        <v>911.2033586925742</v>
+        <v>911.2033586925755</v>
       </c>
       <c r="M41" t="n">
-        <v>1397.836255454268</v>
+        <v>1397.836255454269</v>
       </c>
       <c r="N41" t="n">
-        <v>1871.072552850358</v>
+        <v>1871.072552850359</v>
       </c>
       <c r="O41" t="n">
-        <v>2265.693179758289</v>
+        <v>2265.693179758291</v>
       </c>
       <c r="P41" t="n">
-        <v>2570.33529509228</v>
+        <v>2570.335295092281</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.204762851051</v>
+        <v>2722.204762851052</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.204762851051</v>
+        <v>2722.204762851052</v>
       </c>
       <c r="S41" t="n">
-        <v>2701.597588958077</v>
+        <v>2701.597588958078</v>
       </c>
       <c r="T41" t="n">
-        <v>2633.869690478789</v>
+        <v>2633.869690478791</v>
       </c>
       <c r="U41" t="n">
-        <v>2533.283231207376</v>
+        <v>2533.283231207377</v>
       </c>
       <c r="V41" t="n">
-        <v>2350.559419653219</v>
+        <v>2350.55941965322</v>
       </c>
       <c r="W41" t="n">
-        <v>2142.279952060721</v>
+        <v>2142.279952060722</v>
       </c>
       <c r="X41" t="n">
-        <v>1914.505274132116</v>
+        <v>1914.505274132117</v>
       </c>
       <c r="Y41" t="n">
         <v>1675.218881257856</v>
@@ -7482,16 +7482,16 @@
         <v>209.9629353057399</v>
       </c>
       <c r="H42" t="n">
-        <v>112.8293425338324</v>
+        <v>112.8293425338325</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44409525702102</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J42" t="n">
-        <v>141.5849687921394</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="K42" t="n">
-        <v>417.0292202536366</v>
+        <v>417.0292202536367</v>
       </c>
       <c r="L42" t="n">
         <v>844.6414846352382</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.17834748951242</v>
+        <v>87.17834748951297</v>
       </c>
       <c r="C43" t="n">
-        <v>71.81784050109428</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="D43" t="n">
-        <v>71.81784050109428</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="E43" t="n">
-        <v>71.81784050109428</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="F43" t="n">
-        <v>71.81784050109428</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="G43" t="n">
-        <v>57.39698234714547</v>
+        <v>57.39698234714567</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44409525702102</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44409525702102</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J43" t="n">
-        <v>54.44409525702102</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K43" t="n">
         <v>115.7673725115552</v>
@@ -7594,25 +7594,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S43" t="n">
-        <v>730.9685411943614</v>
+        <v>730.9685411943611</v>
       </c>
       <c r="T43" t="n">
-        <v>653.085151708131</v>
+        <v>653.0851517081306</v>
       </c>
       <c r="U43" t="n">
-        <v>520.1636526341306</v>
+        <v>499.6357322609113</v>
       </c>
       <c r="V43" t="n">
-        <v>413.6838107424547</v>
+        <v>393.1558903692352</v>
       </c>
       <c r="W43" t="n">
-        <v>281.7828718097554</v>
+        <v>261.2549514365357</v>
       </c>
       <c r="X43" t="n">
-        <v>204.7858702550328</v>
+        <v>184.2579498818129</v>
       </c>
       <c r="Y43" t="n">
-        <v>116.4782536239907</v>
+        <v>116.4782536239914</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1435.430804289737</v>
+        <v>1435.430804289739</v>
       </c>
       <c r="C44" t="n">
-        <v>1207.752508172446</v>
+        <v>1207.752508172448</v>
       </c>
       <c r="D44" t="n">
-        <v>989.1840059495712</v>
+        <v>989.1840059495726</v>
       </c>
       <c r="E44" t="n">
-        <v>748.6537486055797</v>
+        <v>748.6537486055806</v>
       </c>
       <c r="F44" t="n">
-        <v>488.758020465652</v>
+        <v>488.7580204656526</v>
       </c>
       <c r="G44" t="n">
-        <v>227.4521772783766</v>
+        <v>227.4521772783768</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44409525702099</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44409525702099</v>
+        <v>54.44409525702042</v>
       </c>
       <c r="J44" t="n">
-        <v>171.5854136416048</v>
+        <v>171.5854136416042</v>
       </c>
       <c r="K44" t="n">
-        <v>479.3831020229593</v>
+        <v>479.3831020229587</v>
       </c>
       <c r="L44" t="n">
-        <v>911.2033586925761</v>
+        <v>911.2033586925755</v>
       </c>
       <c r="M44" t="n">
-        <v>1397.836255454266</v>
+        <v>1397.836255454269</v>
       </c>
       <c r="N44" t="n">
-        <v>1871.072552850356</v>
+        <v>1871.072552850359</v>
       </c>
       <c r="O44" t="n">
-        <v>2265.693179758288</v>
+        <v>2265.693179758291</v>
       </c>
       <c r="P44" t="n">
-        <v>2570.335295092279</v>
+        <v>2570.335295092281</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.20476285105</v>
+        <v>2722.204762851052</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.20476285105</v>
+        <v>2722.204762851052</v>
       </c>
       <c r="S44" t="n">
-        <v>2701.597588958076</v>
+        <v>2701.597588958079</v>
       </c>
       <c r="T44" t="n">
-        <v>2633.869690478789</v>
+        <v>2633.869690478791</v>
       </c>
       <c r="U44" t="n">
-        <v>2533.283231207375</v>
+        <v>2533.283231207377</v>
       </c>
       <c r="V44" t="n">
-        <v>2350.559419653218</v>
+        <v>2350.55941965322</v>
       </c>
       <c r="W44" t="n">
-        <v>2142.27995206072</v>
+        <v>2142.279952060722</v>
       </c>
       <c r="X44" t="n">
-        <v>1914.505274132115</v>
+        <v>1914.505274132117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1675.218881257855</v>
+        <v>1675.218881257857</v>
       </c>
     </row>
     <row r="45">
@@ -7716,19 +7716,19 @@
         <v>338.4010754516842</v>
       </c>
       <c r="G45" t="n">
-        <v>209.9629353057398</v>
+        <v>209.9629353057399</v>
       </c>
       <c r="H45" t="n">
-        <v>112.8293425338324</v>
+        <v>112.8293425338325</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44409525702099</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J45" t="n">
-        <v>141.5849687921394</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="K45" t="n">
-        <v>417.0292202536366</v>
+        <v>417.0292202536367</v>
       </c>
       <c r="L45" t="n">
         <v>844.6414846352382</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.706267862733</v>
+        <v>87.17834748951297</v>
       </c>
       <c r="C46" t="n">
-        <v>92.34576087431491</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="D46" t="n">
-        <v>92.34576087431491</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="E46" t="n">
-        <v>92.34576087431491</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="F46" t="n">
-        <v>92.34576087431491</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="G46" t="n">
-        <v>77.92490272036609</v>
+        <v>57.39698234714567</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44409525702099</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44409525702099</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J46" t="n">
-        <v>54.44409525702099</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K46" t="n">
         <v>115.7673725115552</v>
@@ -7813,43 +7813,43 @@
         <v>251.8453431359738</v>
       </c>
       <c r="M46" t="n">
-        <v>407.2379306735165</v>
+        <v>407.2379306735166</v>
       </c>
       <c r="N46" t="n">
-        <v>562.1700872681866</v>
+        <v>562.1700872681868</v>
       </c>
       <c r="O46" t="n">
-        <v>694.3564570580689</v>
+        <v>694.3564570580691</v>
       </c>
       <c r="P46" t="n">
-        <v>786.1805563448598</v>
+        <v>786.18055634486</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.1805563448598</v>
+        <v>786.18055634486</v>
       </c>
       <c r="R46" t="n">
-        <v>786.1805563448598</v>
+        <v>786.18055634486</v>
       </c>
       <c r="S46" t="n">
-        <v>730.9685411943613</v>
+        <v>710.4406208211424</v>
       </c>
       <c r="T46" t="n">
-        <v>653.0851517081309</v>
+        <v>632.5572313349119</v>
       </c>
       <c r="U46" t="n">
-        <v>520.1636526341305</v>
+        <v>499.6357322609113</v>
       </c>
       <c r="V46" t="n">
-        <v>413.6838107424546</v>
+        <v>393.1558903692352</v>
       </c>
       <c r="W46" t="n">
-        <v>281.7828718097553</v>
+        <v>261.2549514365357</v>
       </c>
       <c r="X46" t="n">
-        <v>204.7858702550326</v>
+        <v>184.2579498818129</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.0061739972113</v>
+        <v>116.4782536239914</v>
       </c>
     </row>
   </sheetData>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.109476210864</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>188.8326827569781</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
         <v>201.569890946046</v>
       </c>
       <c r="M8" t="n">
-        <v>196.7615618141134</v>
+        <v>197.1659932800904</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>196.4077929551615</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>196.5600440970748</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
@@ -8532,25 +8532,25 @@
         <v>113.0652504495981</v>
       </c>
       <c r="K9" t="n">
-        <v>121.601416483621</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>122.5851123540791</v>
       </c>
       <c r="M9" t="n">
-        <v>125.4935813445713</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>125.4646959280654</v>
       </c>
       <c r="P9" t="n">
-        <v>118.8638848070747</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>123.7448702278239</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8614,16 +8614,16 @@
         <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
-        <v>119.1990467954604</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
         <v>122.8868782403605</v>
       </c>
       <c r="N10" t="n">
-        <v>103.744504878002</v>
+        <v>113.3497521949563</v>
       </c>
       <c r="O10" t="n">
-        <v>122.5056162750536</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
         <v>111.9040032899324</v>
@@ -8693,7 +8693,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>354.2553247631327</v>
+        <v>354.2553247631332</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>156.3568809982091</v>
+        <v>156.3568809982095</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8927,10 +8927,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>232.6847821900636</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>354.2553247631332</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>75.897261563624</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857732</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>156.3568809982082</v>
+        <v>522.6044820048903</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9164,10 +9164,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>232.6847821900618</v>
       </c>
       <c r="L17" t="n">
-        <v>354.255324763135</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>75.897261563624</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>65.57829148857732</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>156.3568809982082</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>172.5598694148746</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>395.6633393882317</v>
+        <v>395.6633393882299</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9647,16 +9647,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>379.8467475831289</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>383.0375692571126</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>122.6059850712386</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>156.3568809982082</v>
+        <v>156.3568809982095</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9957,13 +9957,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>50.16086871106104</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>156.3568809982082</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>238.2438485916288</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>75.897261563624</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>65.57829148857732</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>156.3568809982084</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>172.5598694148751</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>156.3568809982084</v>
+        <v>156.3568809982082</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406803</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236953</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.367593540679</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.5465712312742</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>250.209520041195</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>322.8491597882406</v>
       </c>
       <c r="H11" t="n">
-        <v>235.4343762339799</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.61648492952574</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.55747718688175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.2069945273324</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>163.7369697115373</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0529484714534</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>270.3530479494103</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>93.16328210597135</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.98464134895022</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.93239120472967</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.39931553291598</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>52.6600449878767</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>23.18485010283433</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>169.5714185055969</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>140.3834065720133</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>301.5465712312742</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>321.4531458913667</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6882313528543</v>
+        <v>235.4343762339799</v>
       </c>
       <c r="I14" t="n">
         <v>61.82000905557413</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.55747718688175</v>
       </c>
       <c r="T14" t="n">
         <v>131.2069945273324</v>
@@ -23552,13 +23552,13 @@
         <v>163.7369697115373</v>
       </c>
       <c r="V14" t="n">
-        <v>245.0529484714534</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>166.6559010635391</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.98464134895022</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.93239120472967</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>55.74753913934236</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.95714478044763</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.63407987987212</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.8162700318315</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>101.6358654701176</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>169.5714185055969</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-3.999346955788124e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38293.83157536522</v>
+        <v>38293.83157536521</v>
       </c>
       <c r="C2" t="n">
         <v>38293.83157536521</v>
@@ -26323,37 +26323,37 @@
         <v>33424.50138443225</v>
       </c>
       <c r="F2" t="n">
-        <v>33424.50138443224</v>
+        <v>33424.50138443226</v>
       </c>
       <c r="G2" t="n">
-        <v>38381.20302470915</v>
+        <v>38381.20302470913</v>
       </c>
       <c r="H2" t="n">
-        <v>38381.20302470915</v>
+        <v>38381.20302470913</v>
       </c>
       <c r="I2" t="n">
-        <v>38381.20302470915</v>
+        <v>38381.20302470912</v>
       </c>
       <c r="J2" t="n">
-        <v>38381.20302470918</v>
+        <v>38381.20302470911</v>
       </c>
       <c r="K2" t="n">
-        <v>38381.20302470912</v>
+        <v>38381.2030247091</v>
       </c>
       <c r="L2" t="n">
         <v>38381.20302470902</v>
       </c>
       <c r="M2" t="n">
+        <v>38381.20302470907</v>
+      </c>
+      <c r="N2" t="n">
         <v>38381.20302470908</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>38381.20302470909</v>
       </c>
-      <c r="O2" t="n">
-        <v>38381.20302470908</v>
-      </c>
       <c r="P2" t="n">
-        <v>38381.20302470908</v>
+        <v>38381.20302470909</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>3109.306520341968</v>
       </c>
       <c r="E3" t="n">
-        <v>364193.032782379</v>
+        <v>364193.0327823791</v>
       </c>
       <c r="F3" t="n">
-        <v>1.329560606735663e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61893.61656883106</v>
+        <v>61893.61656883127</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83192.20727529825</v>
+        <v>83192.20727529813</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63965.37984460705</v>
+        <v>63965.37984460728</v>
       </c>
       <c r="M3" t="n">
         <v>147607.1236882954</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20130.41834750265</v>
+        <v>20130.41834750243</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26476,10 +26476,10 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>48838.19261242528</v>
+        <v>48838.19261242529</v>
       </c>
       <c r="F5" t="n">
-        <v>48838.19261242531</v>
+        <v>48838.19261242529</v>
       </c>
       <c r="G5" t="n">
         <v>55342.36067658164</v>
@@ -26491,25 +26491,25 @@
         <v>55342.36067658164</v>
       </c>
       <c r="J5" t="n">
-        <v>64667.02949573725</v>
+        <v>64667.02949573723</v>
       </c>
       <c r="K5" t="n">
-        <v>64667.02949573725</v>
+        <v>64667.02949573723</v>
       </c>
       <c r="L5" t="n">
-        <v>64276.15485927403</v>
+        <v>64276.15485927402</v>
       </c>
       <c r="M5" t="n">
         <v>57129.32798310796</v>
       </c>
       <c r="N5" t="n">
-        <v>57129.32798310793</v>
+        <v>57129.32798310796</v>
       </c>
       <c r="O5" t="n">
-        <v>57129.32798310794</v>
+        <v>57129.32798310796</v>
       </c>
       <c r="P5" t="n">
-        <v>57129.32798310793</v>
+        <v>57129.32798310796</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387866.6768177591</v>
+        <v>-387871.0453902263</v>
       </c>
       <c r="C6" t="n">
-        <v>-387866.6768177591</v>
+        <v>-387871.0453902263</v>
       </c>
       <c r="D6" t="n">
-        <v>-391066.6840371151</v>
+        <v>-391067.0687574267</v>
       </c>
       <c r="E6" t="n">
-        <v>-612647.8139294682</v>
+        <v>-612895.6490114821</v>
       </c>
       <c r="F6" t="n">
-        <v>-248454.7811470894</v>
+        <v>-248702.616229103</v>
       </c>
       <c r="G6" t="n">
-        <v>-368278.315324243</v>
+        <v>-368278.3153242433</v>
       </c>
       <c r="H6" t="n">
         <v>-306384.698755412</v>
@@ -26549,7 +26549,7 @@
         <v>-313229.0148711794</v>
       </c>
       <c r="L6" t="n">
-        <v>-376749.9072016586</v>
+        <v>-376749.9072016589</v>
       </c>
       <c r="M6" t="n">
         <v>-452280.299429936</v>
@@ -26558,7 +26558,7 @@
         <v>-304673.1757416406</v>
       </c>
       <c r="O6" t="n">
-        <v>-324803.5940891433</v>
+        <v>-324803.594089143</v>
       </c>
       <c r="P6" t="n">
         <v>-304673.1757416406</v>
@@ -26698,34 +26698,34 @@
         <v>88.55653289156467</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="J2" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="K2" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="L2" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="M2" t="n">
         <v>152.7129079244024</v>
       </c>
       <c r="N2" t="n">
+        <v>152.7129079244023</v>
+      </c>
+      <c r="O2" t="n">
         <v>152.7129079244024</v>
       </c>
-      <c r="O2" t="n">
-        <v>152.7129079244025</v>
-      </c>
       <c r="P2" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8937387711999</v>
+        <v>632.8937387712</v>
       </c>
       <c r="F4" t="n">
-        <v>632.8937387712004</v>
+        <v>632.8937387712</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8937387712004</v>
+        <v>632.8937387712</v>
       </c>
       <c r="H4" t="n">
-        <v>632.8937387712004</v>
+        <v>632.8937387712</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8937387712004</v>
+        <v>632.8937387712</v>
       </c>
       <c r="J4" t="n">
-        <v>873.9150842933439</v>
+        <v>873.9150842933436</v>
       </c>
       <c r="K4" t="n">
-        <v>873.9150842933439</v>
+        <v>873.9150842933436</v>
       </c>
       <c r="L4" t="n">
-        <v>863.9054055104125</v>
+        <v>863.9054055104123</v>
       </c>
       <c r="M4" t="n">
         <v>680.5511907127632</v>
       </c>
       <c r="N4" t="n">
-        <v>680.5511907127627</v>
+        <v>680.5511907127632</v>
       </c>
       <c r="O4" t="n">
-        <v>680.5511907127627</v>
+        <v>680.5511907127631</v>
       </c>
       <c r="P4" t="n">
-        <v>680.5511907127624</v>
+        <v>680.5511907127631</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>77.36702071103883</v>
+        <v>77.36702071103909</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.1630229343782</v>
+        <v>25.16302293437798</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95672480575881</v>
+        <v>79.95672480575909</v>
       </c>
       <c r="M2" t="n">
-        <v>47.59316018426541</v>
+        <v>47.59316018426533</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437832</v>
+        <v>25.16302293437803</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>622.8840599882685</v>
+        <v>622.8840599882686</v>
       </c>
       <c r="F4" t="n">
-        <v>4.640279090678205e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0213455221434</v>
+        <v>241.0213455221436</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.5298451906192</v>
+        <v>439.5298451906195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>77.36702071103883</v>
+        <v>77.36702071103909</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.1630229343782</v>
+        <v>25.16302293437798</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="M4" t="n">
-        <v>622.8840599882685</v>
+        <v>622.8840599882686</v>
       </c>
       <c r="N4" t="n">
-        <v>4.640279090678205e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>359.0860463421173</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27901,13 +27901,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5401605439436</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>213.298831734293</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>242.3268041402145</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>147.8155695705169</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -27938,7 +27938,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>136.7412047716915</v>
+        <v>135.5480510607661</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>49.17674743307231</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>142.4549670453812</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -27989,13 +27989,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>216.101987543218</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>228.8930312960917</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>185.928139458052</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28062,22 +28062,22 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>222.030638580472</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>274.3086583328597</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>248.1182726142302</v>
+        <v>249.3114263251557</v>
       </c>
       <c r="W10" t="n">
         <v>273.2851586848435</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>218.9302606806466</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>209.8051284367143</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="I17" t="n">
         <v>150.3765419471388</v>
@@ -28612,25 +28612,25 @@
         <v>55.98362202713893</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="C19" t="n">
-        <v>70.96154875111537</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="H19" t="n">
         <v>155.6362661436258</v>
@@ -28743,7 +28743,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>42.4184152144945</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>17.97203610473861</v>
       </c>
       <c r="R19" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9235536026035</v>
+        <v>10.57109743187988</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="I20" t="n">
         <v>150.3765419471388</v>
@@ -28849,25 +28849,25 @@
         <v>55.98362202713893</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,10 +28971,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="H22" t="n">
-        <v>155.6362661436258</v>
+        <v>0.28380997290202</v>
       </c>
       <c r="I22" t="n">
         <v>135.5136776720123</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.97203610473861</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>137.1906127714368</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="T22" t="n">
-        <v>165.7337463080577</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="I23" t="n">
         <v>150.3765419471388</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.98362202713983</v>
+        <v>55.98362202713713</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="H25" t="n">
         <v>155.6362661436258</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.97203610473861</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>137.1906127714368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9235536026035</v>
+        <v>165.7337463080554</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="V25" t="n">
-        <v>10.57109743188229</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9235536026035</v>
+        <v>165.9235536026038</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="C26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="D26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="E26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="F26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="G26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="H26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="I26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="J26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="K26" t="n">
-        <v>102.530043645417</v>
+        <v>1.386164617211875</v>
       </c>
       <c r="L26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="M26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="N26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="O26" t="n">
-        <v>1.386164617212671</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="P26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="R26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="S26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="T26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="U26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="V26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="W26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="X26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="C28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="D28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="E28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="F28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="G28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="H28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="I28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="J28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="K28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="L28" t="n">
-        <v>102.5300436454176</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="M28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="N28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="O28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="P28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="R28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="S28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="T28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="U28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="V28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="W28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="X28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="C29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="D29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="E29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="F29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="G29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="H29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="I29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="J29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="K29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="L29" t="n">
-        <v>1.386164617212785</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="M29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="N29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="O29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="P29" t="n">
-        <v>102.530043645417</v>
+        <v>1.386164617211705</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="R29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="S29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="T29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="U29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="V29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="W29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="X29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="C31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="D31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="E31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="F31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="G31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="H31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="I31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="J31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="K31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="L31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="M31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="N31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="O31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="P31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="R31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="S31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="T31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="U31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="V31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="W31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="X31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454171</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="C32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="D32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="E32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="F32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="G32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="H32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="I32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="J32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="K32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="L32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="N32" t="n">
-        <v>105.119747740137</v>
+        <v>46.15399593384041</v>
       </c>
       <c r="O32" t="n">
-        <v>46.15399593384149</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="R32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="S32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="T32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="U32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="V32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="W32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="X32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="C34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="D34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="E34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="F34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="G34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="H34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="I34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="J34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="K34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="L34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="M34" t="n">
-        <v>42.12554573891293</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="N34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="O34" t="n">
-        <v>105.119747740137</v>
+        <v>42.12554573891151</v>
       </c>
       <c r="P34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="R34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="S34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="T34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="U34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="V34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="W34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="X34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.98362202713894</v>
+        <v>55.98362202713893</v>
       </c>
       <c r="S35" t="n">
         <v>152.7129079244024</v>
@@ -30147,7 +30147,7 @@
         <v>152.7129079244024</v>
       </c>
       <c r="D37" t="n">
-        <v>131.2185330710277</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.7129079244024</v>
+        <v>132.3902667549154</v>
       </c>
       <c r="H37" t="n">
         <v>152.7129079244024</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="E38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="F38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="G38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I38" t="n">
         <v>150.3765419471388</v>
@@ -30271,25 +30271,25 @@
         <v>55.98362202713893</v>
       </c>
       <c r="S38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="W38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I40" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J40" t="n">
-        <v>42.4184152144945</v>
+        <v>22.0957740450085</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>137.1906127714368</v>
       </c>
       <c r="S40" t="n">
-        <v>132.3902667549152</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="W40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="E41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="F41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="G41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I41" t="n">
-        <v>150.3765419471368</v>
+        <v>150.3765419471388</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>55.98362202713893</v>
       </c>
       <c r="S41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,10 +30630,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I43" t="n">
         <v>135.5136776720123</v>
@@ -30666,25 +30666,25 @@
         <v>137.1906127714368</v>
       </c>
       <c r="S43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U43" t="n">
-        <v>152.7129079244025</v>
+        <v>132.3902667549158</v>
       </c>
       <c r="V43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.390266754914</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="E44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="F44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="G44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I44" t="n">
         <v>150.3765419471388</v>
@@ -30745,25 +30745,25 @@
         <v>55.98362202713893</v>
       </c>
       <c r="S44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H46" t="n">
-        <v>132.3902667549141</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I46" t="n">
         <v>135.5136776720123</v>
@@ -30903,25 +30903,25 @@
         <v>137.1906127714368</v>
       </c>
       <c r="S46" t="n">
-        <v>152.7129079244025</v>
+        <v>132.3902667549158</v>
       </c>
       <c r="T46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
   </sheetData>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5372540005486832</v>
+        <v>0.5372540005486833</v>
       </c>
       <c r="H35" t="n">
         <v>5.502152533119204</v>
       </c>
       <c r="I35" t="n">
-        <v>20.71248485615313</v>
+        <v>20.71248485615314</v>
       </c>
       <c r="J35" t="n">
-        <v>45.59876172906884</v>
+        <v>45.59876172906885</v>
       </c>
       <c r="K35" t="n">
-        <v>68.34072357229462</v>
+        <v>68.34072357229464</v>
       </c>
       <c r="L35" t="n">
-        <v>84.7827106915864</v>
+        <v>84.78271069158642</v>
       </c>
       <c r="M35" t="n">
-        <v>94.33710152384404</v>
+        <v>94.33710152384405</v>
       </c>
       <c r="N35" t="n">
-        <v>95.86357445290299</v>
+        <v>95.86357445290301</v>
       </c>
       <c r="O35" t="n">
-        <v>90.52125498494702</v>
+        <v>90.52125498494703</v>
       </c>
       <c r="P35" t="n">
-        <v>77.25779684640139</v>
+        <v>77.2577968464014</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.01738795175166</v>
+        <v>58.01738795175167</v>
       </c>
       <c r="R35" t="n">
-        <v>33.74828161196625</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S35" t="n">
         <v>12.24267553750313</v>
       </c>
       <c r="T35" t="n">
-        <v>2.351829387401862</v>
+        <v>2.351829387401863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04298032004389465</v>
+        <v>0.04298032004389466</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>0.287456232463383</v>
       </c>
       <c r="H36" t="n">
-        <v>2.776222034580567</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I36" t="n">
-        <v>9.8970676527963</v>
+        <v>9.897067652796302</v>
       </c>
       <c r="J36" t="n">
         <v>27.15831010304269</v>
@@ -33740,34 +33740,34 @@
         <v>46.41787767808935</v>
       </c>
       <c r="L36" t="n">
-        <v>62.41456486008673</v>
+        <v>62.41456486008674</v>
       </c>
       <c r="M36" t="n">
-        <v>72.83485328688434</v>
+        <v>72.83485328688435</v>
       </c>
       <c r="N36" t="n">
-        <v>74.76257512651819</v>
+        <v>74.7625751265182</v>
       </c>
       <c r="O36" t="n">
-        <v>68.39315018614532</v>
+        <v>68.39315018614533</v>
       </c>
       <c r="P36" t="n">
-        <v>54.89153267101214</v>
+        <v>54.89153267101215</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.69353591936095</v>
+        <v>36.69353591936096</v>
       </c>
       <c r="R36" t="n">
-        <v>17.84750187171776</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S36" t="n">
-        <v>5.339373440712395</v>
+        <v>5.339373440712396</v>
       </c>
       <c r="T36" t="n">
         <v>1.158650340499337</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01891159424101204</v>
+        <v>0.01891159424101205</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>2.142652624893155</v>
       </c>
       <c r="I37" t="n">
-        <v>7.247336281335945</v>
+        <v>7.247336281335946</v>
       </c>
       <c r="J37" t="n">
-        <v>17.03825098547449</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K37" t="n">
         <v>27.99908031302096</v>
@@ -33822,10 +33822,10 @@
         <v>35.82918305470618</v>
       </c>
       <c r="M37" t="n">
-        <v>37.77684990903133</v>
+        <v>37.77684990903134</v>
       </c>
       <c r="N37" t="n">
-        <v>36.8786008536058</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O37" t="n">
         <v>34.06335686282083</v>
@@ -33834,13 +33834,13 @@
         <v>29.14708642288191</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.17993182810924</v>
+        <v>20.17993182810925</v>
       </c>
       <c r="R37" t="n">
         <v>10.83595080032877</v>
       </c>
       <c r="S37" t="n">
-        <v>4.199862046953143</v>
+        <v>4.199862046953144</v>
       </c>
       <c r="T37" t="n">
         <v>1.029700136707344</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="M8" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="O8" t="n">
         <v>9.605247316954333</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K9" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="O10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>310.9067559407621</v>
       </c>
       <c r="L11" t="n">
-        <v>247.4778232916045</v>
+        <v>247.477823291605</v>
       </c>
       <c r="M11" t="n">
         <v>491.5483805673672</v>
@@ -35498,7 +35498,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N12" t="n">
-        <v>124.404315057019</v>
+        <v>124.4043150570194</v>
       </c>
       <c r="O12" t="n">
         <v>464.5547166347826</v>
@@ -35647,10 +35647,10 @@
         <v>118.3245640248321</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2025017883115</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L14" t="n">
-        <v>436.1820774440574</v>
+        <v>247.477823291605</v>
       </c>
       <c r="M14" t="n">
         <v>491.5483805673672</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.02108437890749</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>431.9315801834359</v>
@@ -35735,7 +35735,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N15" t="n">
-        <v>124.404315057018</v>
+        <v>490.6519160637002</v>
       </c>
       <c r="O15" t="n">
         <v>464.5547166347826</v>
@@ -35884,10 +35884,10 @@
         <v>118.3245640248321</v>
       </c>
       <c r="K17" t="n">
-        <v>310.9067559407621</v>
+        <v>122.2025017883097</v>
       </c>
       <c r="L17" t="n">
-        <v>247.4778232916068</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M17" t="n">
         <v>491.5483805673672</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L18" t="n">
         <v>431.9315801834359</v>
@@ -35972,7 +35972,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N18" t="n">
-        <v>591.1925207054294</v>
+        <v>124.404315057018</v>
       </c>
       <c r="O18" t="n">
         <v>464.5547166347826</v>
@@ -35981,7 +35981,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.51821388934312</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M20" t="n">
-        <v>302.8441264149167</v>
+        <v>302.8441264149149</v>
       </c>
       <c r="N20" t="n">
         <v>478.0164620162523</v>
@@ -36367,16 +36367,16 @@
         <v>491.5483805673672</v>
       </c>
       <c r="N23" t="n">
-        <v>289.3122078638019</v>
+        <v>478.0164620162523</v>
       </c>
       <c r="O23" t="n">
         <v>398.6066938463955</v>
       </c>
       <c r="P23" t="n">
-        <v>307.7193084181723</v>
+        <v>272.4185570523575</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.4035027866375</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N24" t="n">
-        <v>124.404315057018</v>
+        <v>124.4043150570194</v>
       </c>
       <c r="O24" t="n">
         <v>464.5547166347826</v>
@@ -36595,7 +36595,7 @@
         <v>220.8546076702492</v>
       </c>
       <c r="K26" t="n">
-        <v>413.4367995861791</v>
+        <v>312.292920557974</v>
       </c>
       <c r="L26" t="n">
         <v>538.7121210894744</v>
@@ -36607,7 +36607,7 @@
         <v>580.5465056616692</v>
       </c>
       <c r="O26" t="n">
-        <v>399.9928584636082</v>
+        <v>501.1367374918126</v>
       </c>
       <c r="P26" t="n">
         <v>410.2493520635894</v>
@@ -36616,7 +36616,7 @@
         <v>255.9335464320546</v>
       </c>
       <c r="R26" t="n">
-        <v>46.54642161827811</v>
+        <v>46.54642161827814</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>278.2265166277749</v>
       </c>
       <c r="L27" t="n">
-        <v>431.9315801834359</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>562.7675336002444</v>
       </c>
       <c r="N27" t="n">
-        <v>124.404315057018</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O27" t="n">
         <v>464.5547166347826</v>
@@ -36692,7 +36692,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.0588185310723</v>
+        <v>161.2021930660973</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.11162843092254</v>
+        <v>60.11162843092256</v>
       </c>
       <c r="K28" t="n">
         <v>164.4727479429263</v>
       </c>
       <c r="L28" t="n">
-        <v>239.9825392256384</v>
+        <v>239.9825392256379</v>
       </c>
       <c r="M28" t="n">
-        <v>259.4922532792986</v>
+        <v>259.4922532792987</v>
       </c>
       <c r="N28" t="n">
         <v>259.0271715188212</v>
@@ -36768,10 +36768,10 @@
         <v>236.0516292917628</v>
       </c>
       <c r="P28" t="n">
-        <v>195.2816590866199</v>
+        <v>195.28165908662</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.55800754067843</v>
+        <v>84.55800754067846</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>413.4367995861791</v>
       </c>
       <c r="L29" t="n">
-        <v>437.5682420612702</v>
+        <v>538.7121210894744</v>
       </c>
       <c r="M29" t="n">
         <v>594.0784242127843</v>
@@ -36844,16 +36844,16 @@
         <v>580.5465056616692</v>
       </c>
       <c r="O29" t="n">
-        <v>501.1367374918125</v>
+        <v>501.1367374918126</v>
       </c>
       <c r="P29" t="n">
-        <v>410.2493520635894</v>
+        <v>309.105473035384</v>
       </c>
       <c r="Q29" t="n">
         <v>255.9335464320546</v>
       </c>
       <c r="R29" t="n">
-        <v>46.54642161827811</v>
+        <v>46.54642161827814</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L30" t="n">
         <v>431.9315801834359</v>
@@ -36920,7 +36920,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N30" t="n">
-        <v>591.1925207054294</v>
+        <v>124.4043150570183</v>
       </c>
       <c r="O30" t="n">
         <v>464.5547166347826</v>
@@ -36929,7 +36929,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.51821388934357</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.11162843092254</v>
+        <v>60.11162843092256</v>
       </c>
       <c r="K31" t="n">
         <v>164.4727479429263</v>
@@ -36996,7 +36996,7 @@
         <v>239.9825392256379</v>
       </c>
       <c r="M31" t="n">
-        <v>259.4922532792986</v>
+        <v>259.4922532792987</v>
       </c>
       <c r="N31" t="n">
         <v>259.0271715188212</v>
@@ -37008,7 +37008,7 @@
         <v>195.28165908662</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.55800754067843</v>
+        <v>84.55800754067846</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>541.3018251841944</v>
       </c>
       <c r="M32" t="n">
-        <v>491.5483805673672</v>
+        <v>596.6681283075043</v>
       </c>
       <c r="N32" t="n">
-        <v>583.1362097563892</v>
+        <v>524.1704579500927</v>
       </c>
       <c r="O32" t="n">
-        <v>444.760689780237</v>
+        <v>398.6066938463955</v>
       </c>
       <c r="P32" t="n">
-        <v>412.8390561583093</v>
+        <v>412.8390561583094</v>
       </c>
       <c r="Q32" t="n">
         <v>258.5232505267746</v>
       </c>
       <c r="R32" t="n">
-        <v>49.13612571299809</v>
+        <v>49.13612571299814</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.70133252564251</v>
+        <v>62.70133252564257</v>
       </c>
       <c r="K34" t="n">
         <v>167.0624520376463</v>
       </c>
       <c r="L34" t="n">
-        <v>242.5722433203578</v>
+        <v>242.5722433203579</v>
       </c>
       <c r="M34" t="n">
-        <v>199.0877553727945</v>
+        <v>262.0819573740187</v>
       </c>
       <c r="N34" t="n">
-        <v>261.6168756135412</v>
+        <v>261.6168756135413</v>
       </c>
       <c r="O34" t="n">
-        <v>238.6413333864828</v>
+        <v>175.6471313852573</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8713631813399</v>
+        <v>197.87136318134</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.14771163539841</v>
+        <v>87.14771163539847</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,16 +37309,16 @@
         <v>310.9067559407621</v>
       </c>
       <c r="L35" t="n">
-        <v>436.1820774440573</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M35" t="n">
         <v>491.5483805673672</v>
       </c>
       <c r="N35" t="n">
-        <v>478.0164620162522</v>
+        <v>478.0164620162523</v>
       </c>
       <c r="O35" t="n">
-        <v>398.6066938463954</v>
+        <v>398.6066938463955</v>
       </c>
       <c r="P35" t="n">
         <v>307.7193084181723</v>
@@ -37394,7 +37394,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N36" t="n">
-        <v>124.4043150570183</v>
+        <v>124.404315057018</v>
       </c>
       <c r="O36" t="n">
         <v>464.5547166347826</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>61.94270429750925</v>
+        <v>61.94270429750927</v>
       </c>
       <c r="L37" t="n">
         <v>137.4524955802208</v>
@@ -37549,7 +37549,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M38" t="n">
-        <v>491.5483805673653</v>
+        <v>491.5483805673672</v>
       </c>
       <c r="N38" t="n">
         <v>478.0164620162523</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.980907020906946e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248315</v>
       </c>
       <c r="K41" t="n">
         <v>310.9067559407621</v>
@@ -38023,7 +38023,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M44" t="n">
-        <v>491.5483805673639</v>
+        <v>491.5483805673672</v>
       </c>
       <c r="N44" t="n">
         <v>478.0164620162523</v>
